--- a/resources/templates/Plasmodium/NOMADS_Library_Plasmo_Worksheet.xlsx
+++ b/resources/templates/Plasmodium/NOMADS_Library_Plasmo_Worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\warehouse\resources\templates\Plasmodium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\Plasmodium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A23DB-72F1-436E-A499-8B00419DCF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AF5542-6804-4071-A236-F04929E7EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,15 @@
     <definedName name="DNAconc_pooled">Assay!$D$37</definedName>
     <definedName name="endrepair_maxvol">reference!$B$3</definedName>
     <definedName name="endrepair_targetmass">Assay!$F$16</definedName>
+    <definedName name="endrepair_vol_calculation_type">reference!$B$6</definedName>
     <definedName name="exp_date">Assay!$C$2</definedName>
     <definedName name="exp_id">Assay!$C$5</definedName>
     <definedName name="exp_notes">Assay!$C$12</definedName>
     <definedName name="exp_rxns">Assay!$C$11</definedName>
     <definedName name="exp_summary">Assay!$C$9</definedName>
-    <definedName name="exp_type">reference!$B$8</definedName>
+    <definedName name="exp_type">reference!$B$9</definedName>
     <definedName name="exp_user">Assay!$C$3</definedName>
-    <definedName name="exp_version">reference!$B$9</definedName>
+    <definedName name="exp_version">reference!$B$10</definedName>
     <definedName name="flowcell_checkpores">Assay!$C$69</definedName>
     <definedName name="flowcell_chemisty">Assay!$C$68</definedName>
     <definedName name="flowcell_id">Assay!$C$65</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="395">
   <si>
     <t>NOMADS Library Worksheet</t>
   </si>
@@ -1588,6 +1589,18 @@
   </si>
   <si>
     <t>per column</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>PCR prodct (µl) to add (general)</t>
+  </si>
+  <si>
+    <t>End-repair vol calculation type</t>
+  </si>
+  <si>
+    <t>(general)</t>
   </si>
 </sst>
 </file>
@@ -2170,6 +2183,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2307,10 +2324,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2321,101 +2334,7 @@
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0CECE"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0CECE"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0CECE"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -2512,9 +2431,117 @@
       </fill>
     </dxf>
     <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0CECE"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0CECE"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0CECE"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0CECE"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -2524,16 +2551,8 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -2572,6 +2591,24 @@
         <left style="thin">
           <color auto="1"/>
         </left>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2666,11 +2703,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A2:R98" totalsRowShown="0">
-  <autoFilter ref="A2:R98" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{D11167BC-CEB0-4BCF-918C-7AFD807B17A9}" name="Column" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A2:S98" totalsRowShown="0">
+  <autoFilter ref="A2:S98" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{D11167BC-CEB0-4BCF-918C-7AFD807B17A9}" name="Column" dataDxfId="27">
       <calculatedColumnFormula>RIGHT(tbl_SeqLib[[#This Row],[Well]],LEN(tbl_SeqLib[[#This Row],[Well]])-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="26"/>
@@ -2682,23 +2719,26 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PCR Dilution Factor" dataDxfId="20"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{001B4B8A-7DCB-4BB4-B720-5DA9C2A7387A}" name="PCR prodct (µl) to add (exact)" dataDxfId="4">
-      <calculatedColumnFormula>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{001B4B8A-7DCB-4BB4-B720-5DA9C2A7387A}" name="PCR prodct (µl) to add (exact)" dataDxfId="18">
+      <calculatedColumnFormula>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{93494231-5E3B-4D67-8106-A21E3E62E444}" name="Min vol for col" dataDxfId="3">
+    <tableColumn id="19" xr3:uid="{93494231-5E3B-4D67-8106-A21E3E62E444}" name="Min vol for col" dataDxfId="17">
       <calculatedColumnFormula>ROUNDUP(_xlfn.MINIFS(tbl_SeqLib[PCR prodct (µl) to add (exact)],tbl_SeqLib[Column],tbl_SeqLib[[#This Row],[Column]]),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{1FEA1346-E871-470E-AA2A-C8AFB0F9A249}" name="Max vol for col" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{1FEA1346-E871-470E-AA2A-C8AFB0F9A249}" name="Max vol for col" dataDxfId="16">
       <calculatedColumnFormula>ROUNDDOWN(_xlfn.MAXIFS(tbl_SeqLib[PCR prodct (µl) to add (exact)],tbl_SeqLib[Column],tbl_SeqLib[[#This Row],[Column]]),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{6A9EBE31-586B-4F64-B082-46847B0D6428}" name="Av vol for col" dataDxfId="0">
+    <tableColumn id="21" xr3:uid="{6A9EBE31-586B-4F64-B082-46847B0D6428}" name="Av vol for col" dataDxfId="15">
       <calculatedColumnFormula>ROUNDUP(AVERAGEIFS(tbl_SeqLib[PCR prodct (µl) to add (exact)],tbl_SeqLib[Column],tbl_SeqLib[[#This Row],[Column]]),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PCR prodct (µl) to add for end-repair" dataDxfId="1">
+    <tableColumn id="25" xr3:uid="{D59FA2D5-564A-45ED-A2E9-851026B8F744}" name="PCR prodct (µl) to add (general)" dataDxfId="14">
       <calculatedColumnFormula array="1">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="NF H20 (µl)" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SeqLib Identifier" dataDxfId="17">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PCR prodct (µl) to add for end-repair" dataDxfId="13">
+      <calculatedColumnFormula>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="NF H20 (µl)" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SeqLib Identifier" dataDxfId="11">
       <calculatedColumnFormula>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2985,8 +3025,8 @@
   </sheetPr>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2995,171 +3035,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="J2" s="70" t="s">
+      <c r="H2" s="71"/>
+      <c r="J2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="70"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="72"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="73"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75" t="str">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SL",VLOOKUP(C3,reference!G3:H5,2,FALSE()),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="76"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="77" t="str">
+      <c r="B6" s="76"/>
+      <c r="C6" s="79" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE(C2,"_SeqLib_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="5"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81" t="str">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81" t="str">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="36"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -3167,32 +3207,32 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
@@ -3203,11 +3243,11 @@
       </c>
       <c r="C15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="I15" s="83" t="s">
+      <c r="I15" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -3217,9 +3257,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="37">
-        <v>800</v>
-      </c>
+      <c r="F16" s="37"/>
       <c r="G16" s="9" t="str">
         <f>CONCATENATE("ng added, max vol = ", endrepair_maxvol, " µl")</f>
         <v>ng added, max vol = 10 µl</v>
@@ -3239,119 +3277,119 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85" t="str">
+      <c r="E18" s="87"/>
+      <c r="F18" s="87" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="I18" s="86" t="s">
+      <c r="G18" s="87"/>
+      <c r="I18" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="86"/>
+      <c r="J18" s="88"/>
       <c r="K18" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89" t="s">
+      <c r="E19" s="90"/>
+      <c r="F19" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="I19" s="90">
+      <c r="G19" s="91"/>
+      <c r="I19" s="92">
         <v>20</v>
       </c>
-      <c r="J19" s="90"/>
+      <c r="J19" s="92"/>
       <c r="K19" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88" t="str">
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90" t="str">
         <f>CONCATENATE(endrepair_maxvol, " - x")</f>
         <v>10 - x</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89" t="s">
+      <c r="E20" s="90"/>
+      <c r="F20" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="I20" s="90">
+      <c r="G20" s="91"/>
+      <c r="I20" s="92">
         <v>65</v>
       </c>
-      <c r="J20" s="90"/>
+      <c r="J20" s="92"/>
       <c r="K20" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="91">
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="93">
         <v>1.4</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="89">
+      <c r="E21" s="93"/>
+      <c r="F21" s="91">
         <f>SUM(D21*exp_rxns*(1+$D$17))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="89"/>
-      <c r="I21" s="90">
+      <c r="G21" s="91"/>
+      <c r="I21" s="92">
         <v>4</v>
       </c>
-      <c r="J21" s="90"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="91">
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="93">
         <v>0.6</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="89">
+      <c r="E22" s="93"/>
+      <c r="F22" s="91">
         <f>SUM(D22*exp_rxns*(1+$D$17))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="89"/>
+      <c r="G22" s="91"/>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="D23" s="92">
+      <c r="D23" s="94">
         <f>SUM(D21:D22)+endrepair_maxvol</f>
         <v>12</v>
       </c>
-      <c r="E23" s="92"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="13" t="str">
         <f>CONCATENATE("Add ",SUM(D21:D22)," µl of MM to each")</f>
         <v>Add 2 µl of MM to each</v>
@@ -3376,103 +3414,103 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85" t="str">
+      <c r="E26" s="87"/>
+      <c r="F26" s="87" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G26" s="85"/>
-      <c r="I26" s="86" t="s">
+      <c r="G26" s="87"/>
+      <c r="I26" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="86"/>
+      <c r="J26" s="88"/>
       <c r="K26" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88">
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90">
         <v>0.5</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89" t="s">
+      <c r="E27" s="90"/>
+      <c r="F27" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="89"/>
-      <c r="I27" s="90">
+      <c r="G27" s="91"/>
+      <c r="I27" s="92">
         <v>20</v>
       </c>
-      <c r="J27" s="90"/>
+      <c r="J27" s="92"/>
       <c r="K27" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88">
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90">
         <v>6</v>
       </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89">
+      <c r="E28" s="90"/>
+      <c r="F28" s="91">
         <f>SUM(D28*exp_rxns*(1+$D$25))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="89"/>
-      <c r="I28" s="90">
+      <c r="G28" s="91"/>
+      <c r="I28" s="92">
         <v>65</v>
       </c>
-      <c r="J28" s="90"/>
+      <c r="J28" s="92"/>
       <c r="K28" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88">
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90">
         <v>0.2</v>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89">
+      <c r="E29" s="90"/>
+      <c r="F29" s="91">
         <f>SUM(D29*exp_rxns*(1+$D$25))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="89"/>
-      <c r="I29" s="90">
+      <c r="G29" s="91"/>
+      <c r="I29" s="92">
         <v>8</v>
       </c>
-      <c r="J29" s="90"/>
+      <c r="J29" s="92"/>
       <c r="K29" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="D30" s="93">
+      <c r="D30" s="95">
         <f>SUM(D27:D29)+D23</f>
         <v>18.7</v>
       </c>
-      <c r="E30" s="93"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="13" t="str">
         <f>CONCATENATE("Add ",SUM(D28:D29)," µl of MM to each")</f>
         <v>Add 6.2 µl of MM to each</v>
@@ -3496,20 +3534,20 @@
       <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -3532,10 +3570,10 @@
       <c r="C36" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="96"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
@@ -3544,11 +3582,11 @@
       </c>
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
-      <c r="D37" s="95">
+      <c r="D37" s="97">
         <f>SUM(B37*C37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="95"/>
+      <c r="E37" s="97"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -3569,97 +3607,97 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="96" t="s">
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="96"/>
-      <c r="I41" s="86" t="s">
+      <c r="E41" s="98"/>
+      <c r="I41" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="86"/>
+      <c r="J41" s="88"/>
       <c r="K41" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="97">
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="99">
         <f>IF(B37="",adaptlig_dna_maxvol,IF(SUM(adaptlig_targetmass/D37)&gt;adaptlig_dna_maxvol,adaptlig_dna_maxvol,SUM(adaptlig_targetmass/D37)))</f>
         <v>30</v>
       </c>
-      <c r="E42" s="97"/>
+      <c r="E42" s="99"/>
       <c r="F42" s="5"/>
-      <c r="I42" s="90" t="s">
+      <c r="I42" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="J42" s="90"/>
+      <c r="J42" s="92"/>
       <c r="K42" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="97">
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="99">
         <f>IFERROR(SUM(adaptlig_dna_maxvol-D42),"")</f>
         <v>0</v>
       </c>
-      <c r="E43" s="97"/>
+      <c r="E43" s="99"/>
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="75">
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="77">
         <v>5</v>
       </c>
-      <c r="E44" s="75"/>
+      <c r="E44" s="77"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="75">
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="77">
         <f>SUM(adaptlig_rxn_vol/5)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="75"/>
+      <c r="E45" s="77"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="75">
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="77">
         <f>SUM(adaptlig_rxn_vol/10)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="75"/>
+      <c r="E46" s="77"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D47" s="98">
+      <c r="D47" s="100">
         <f>SUM(D42:D46)</f>
         <v>35</v>
       </c>
-      <c r="E47" s="98"/>
+      <c r="E47" s="100"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
@@ -3667,20 +3705,20 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="99"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="101"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
@@ -3694,38 +3732,38 @@
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84" t="s">
+      <c r="B52" s="86"/>
+      <c r="C52" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84" t="s">
+      <c r="D52" s="86"/>
+      <c r="E52" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84" t="s">
+      <c r="F52" s="86"/>
+      <c r="G52" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="84"/>
+      <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="100">
+      <c r="A53" s="102">
         <f>SUM(adaptlig_rxn_vol*0.5)</f>
         <v>0</v>
       </c>
-      <c r="B53" s="100"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="90">
+      <c r="B53" s="102"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="92">
         <f>SUM(C53*E53)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="90"/>
+      <c r="H53" s="92"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -3744,61 +3782,61 @@
       <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="96" t="s">
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="96"/>
+      <c r="E57" s="98"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="97">
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="99">
         <f>IF(C53="",flowcell_maxvol,IF(SUM(flowcell_targetmass/G53)&gt;flowcell_maxvol,flowcell_maxvol,SUM(flowcell_targetmass/G53)))</f>
         <v>12</v>
       </c>
-      <c r="E58" s="97"/>
+      <c r="E58" s="99"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="94" t="s">
+      <c r="A59" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="97" t="str">
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="99" t="str">
         <f>IFERROR((IF(SUM(12-D58)=0,"-",SUM(12-D58))),"")</f>
         <v>-</v>
       </c>
-      <c r="E59" s="97"/>
+      <c r="E59" s="99"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="102">
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="104">
         <v>37.5</v>
       </c>
-      <c r="E60" s="102"/>
+      <c r="E60" s="104"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="102">
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="104">
         <v>25.5</v>
       </c>
-      <c r="E61" s="102"/>
+      <c r="E61" s="104"/>
       <c r="F61" s="5" t="s">
         <v>63</v>
       </c>
@@ -3810,75 +3848,75 @@
       <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
       <c r="E64" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="67"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="105"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="67" t="s">
+      <c r="A67" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="67"/>
-      <c r="C67" s="105" t="str">
+      <c r="B67" s="69"/>
+      <c r="C67" s="107" t="str">
         <f>IF(flowcell_status="New",0,"")</f>
         <v/>
       </c>
-      <c r="D67" s="105"/>
+      <c r="D67" s="107"/>
       <c r="E67" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="67" t="s">
+      <c r="A68" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
       <c r="E68" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="103"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
       <c r="E69" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="103"/>
-      <c r="D70" s="103"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
       <c r="E70" s="9" t="s">
         <v>76</v>
       </c>
@@ -4004,41 +4042,41 @@
     <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>COUNTIF(B56,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4 C7:C8 C11:C12 F16 B37:C37 B40 C53:E53 C64:C66 C68:C70">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>COUNTIF(B2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>800</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
       <formula>800</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>COUNTIF(F40,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4130,10 +4168,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4145,35 +4183,36 @@
     <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="12" max="15" width="11" hidden="1" customWidth="1"/>
+    <col min="12" max="16" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D1" s="106" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D1" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="106"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108" t="s">
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-    </row>
-    <row r="2" spans="1:20" s="15" customFormat="1" ht="64.5" x14ac:dyDescent="0.35">
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+    </row>
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="64.5" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>81</v>
       </c>
@@ -4220,16 +4259,19 @@
         <v>386</v>
       </c>
       <c r="P2" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="R2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="S2" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62">
         <v>1</v>
       </c>
@@ -4254,7 +4296,7 @@
         <v>94</v>
       </c>
       <c r="L3" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M3" s="56">
@@ -4274,15 +4316,19 @@
         <v/>
       </c>
       <c r="Q3" s="56" t="str">
-        <f t="shared" ref="Q3:Q34" si="0">IFERROR(SUM(endrepair_maxvol-P3),"")</f>
-        <v/>
-      </c>
-      <c r="R3" s="57" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R3" s="56" t="str">
+        <f t="shared" ref="R3:R34" si="0">IFERROR(SUM(endrepair_maxvol-Q3),"")</f>
+        <v/>
+      </c>
+      <c r="S3" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62">
         <v>2</v>
       </c>
@@ -4307,7 +4353,7 @@
         <v>96</v>
       </c>
       <c r="L4" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M4" s="56">
@@ -4326,16 +4372,20 @@
         <f t="array" ref="P4">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q4" s="58" t="str">
+      <c r="Q4" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R4" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R4" s="57" t="str">
+      <c r="S4" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>3</v>
       </c>
@@ -4360,7 +4410,7 @@
         <v>98</v>
       </c>
       <c r="L5" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M5" s="56">
@@ -4379,17 +4429,21 @@
         <f t="array" ref="P5">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q5" s="58" t="str">
+      <c r="Q5" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R5" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R5" s="57" t="str">
+      <c r="S5" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="T5" s="109"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="66"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62">
         <v>4</v>
       </c>
@@ -4414,7 +4468,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M6" s="56">
@@ -4433,17 +4487,21 @@
         <f t="array" ref="P6">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q6" s="58" t="str">
+      <c r="Q6" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R6" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R6" s="57" t="str">
+      <c r="S6" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="T6" s="109"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="66"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62">
         <v>5</v>
       </c>
@@ -4468,7 +4526,7 @@
         <v>102</v>
       </c>
       <c r="L7" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M7" s="56">
@@ -4487,16 +4545,20 @@
         <f t="array" ref="P7">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q7" s="58" t="str">
+      <c r="Q7" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R7" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R7" s="57" t="str">
+      <c r="S7" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
         <v>6</v>
       </c>
@@ -4521,7 +4583,7 @@
         <v>104</v>
       </c>
       <c r="L8" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M8" s="56">
@@ -4540,16 +4602,20 @@
         <f t="array" ref="P8">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q8" s="58" t="str">
+      <c r="Q8" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R8" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R8" s="57" t="str">
+      <c r="S8" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
         <v>7</v>
       </c>
@@ -4574,7 +4640,7 @@
         <v>106</v>
       </c>
       <c r="L9" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M9" s="56">
@@ -4593,16 +4659,20 @@
         <f t="array" ref="P9">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q9" s="58" t="str">
+      <c r="Q9" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R9" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R9" s="57" t="str">
+      <c r="S9" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
         <v>8</v>
       </c>
@@ -4627,7 +4697,7 @@
         <v>108</v>
       </c>
       <c r="L10" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M10" s="56">
@@ -4646,16 +4716,20 @@
         <f t="array" ref="P10">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q10" s="58" t="str">
+      <c r="Q10" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R10" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R10" s="57" t="str">
+      <c r="S10" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>9</v>
       </c>
@@ -4680,7 +4754,7 @@
         <v>110</v>
       </c>
       <c r="L11" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M11" s="56">
@@ -4699,16 +4773,20 @@
         <f t="array" ref="P11">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q11" s="58" t="str">
+      <c r="Q11" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R11" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R11" s="57" t="str">
+      <c r="S11" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <v>10</v>
       </c>
@@ -4733,7 +4811,7 @@
         <v>112</v>
       </c>
       <c r="L12" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M12" s="56">
@@ -4752,16 +4830,20 @@
         <f t="array" ref="P12">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q12" s="58" t="str">
+      <c r="Q12" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R12" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R12" s="57" t="str">
+      <c r="S12" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <v>11</v>
       </c>
@@ -4786,7 +4868,7 @@
         <v>114</v>
       </c>
       <c r="L13" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M13" s="56">
@@ -4805,16 +4887,20 @@
         <f t="array" ref="P13">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q13" s="58" t="str">
+      <c r="Q13" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R13" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R13" s="57" t="str">
+      <c r="S13" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
         <v>12</v>
       </c>
@@ -4839,7 +4925,7 @@
         <v>116</v>
       </c>
       <c r="L14" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M14" s="56">
@@ -4858,16 +4944,20 @@
         <f t="array" ref="P14">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q14" s="58" t="str">
+      <c r="Q14" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R14" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R14" s="57" t="str">
+      <c r="S14" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
         <v>13</v>
       </c>
@@ -4892,7 +4982,7 @@
         <v>118</v>
       </c>
       <c r="L15" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M15" s="56">
@@ -4911,16 +5001,20 @@
         <f t="array" ref="P15">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q15" s="58" t="str">
+      <c r="Q15" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R15" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R15" s="57" t="str">
+      <c r="S15" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
         <v>14</v>
       </c>
@@ -4945,7 +5039,7 @@
         <v>120</v>
       </c>
       <c r="L16" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M16" s="56">
@@ -4964,16 +5058,20 @@
         <f t="array" ref="P16">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q16" s="58" t="str">
+      <c r="Q16" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R16" s="57" t="str">
+      <c r="S16" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
         <v>15</v>
       </c>
@@ -4998,7 +5096,7 @@
         <v>122</v>
       </c>
       <c r="L17" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M17" s="56">
@@ -5017,16 +5115,20 @@
         <f t="array" ref="P17">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q17" s="58" t="str">
+      <c r="Q17" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R17" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R17" s="57" t="str">
+      <c r="S17" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62">
         <v>16</v>
       </c>
@@ -5051,7 +5153,7 @@
         <v>124</v>
       </c>
       <c r="L18" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M18" s="56">
@@ -5070,16 +5172,20 @@
         <f t="array" ref="P18">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q18" s="58" t="str">
+      <c r="Q18" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R18" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R18" s="57" t="str">
+      <c r="S18" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62">
         <v>17</v>
       </c>
@@ -5104,7 +5210,7 @@
         <v>126</v>
       </c>
       <c r="L19" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M19" s="56">
@@ -5123,16 +5229,20 @@
         <f t="array" ref="P19">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q19" s="58" t="str">
+      <c r="Q19" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R19" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R19" s="57" t="str">
+      <c r="S19" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
         <v>18</v>
       </c>
@@ -5157,7 +5267,7 @@
         <v>128</v>
       </c>
       <c r="L20" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M20" s="56">
@@ -5176,16 +5286,20 @@
         <f t="array" ref="P20">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q20" s="58" t="str">
+      <c r="Q20" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R20" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R20" s="57" t="str">
+      <c r="S20" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62">
         <v>19</v>
       </c>
@@ -5210,7 +5324,7 @@
         <v>130</v>
       </c>
       <c r="L21" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M21" s="56">
@@ -5229,16 +5343,20 @@
         <f t="array" ref="P21">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q21" s="58" t="str">
+      <c r="Q21" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R21" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R21" s="57" t="str">
+      <c r="S21" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
         <v>20</v>
       </c>
@@ -5263,7 +5381,7 @@
         <v>132</v>
       </c>
       <c r="L22" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M22" s="56">
@@ -5282,16 +5400,20 @@
         <f t="array" ref="P22">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q22" s="58" t="str">
+      <c r="Q22" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R22" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R22" s="57" t="str">
+      <c r="S22" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="62">
         <v>21</v>
       </c>
@@ -5316,7 +5438,7 @@
         <v>134</v>
       </c>
       <c r="L23" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M23" s="56">
@@ -5335,16 +5457,20 @@
         <f t="array" ref="P23">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q23" s="58" t="str">
+      <c r="Q23" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R23" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R23" s="57" t="str">
+      <c r="S23" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="62">
         <v>22</v>
       </c>
@@ -5369,7 +5495,7 @@
         <v>136</v>
       </c>
       <c r="L24" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M24" s="56">
@@ -5388,16 +5514,20 @@
         <f t="array" ref="P24">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q24" s="58" t="str">
+      <c r="Q24" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R24" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R24" s="57" t="str">
+      <c r="S24" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62">
         <v>23</v>
       </c>
@@ -5422,7 +5552,7 @@
         <v>138</v>
       </c>
       <c r="L25" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M25" s="56">
@@ -5441,16 +5571,20 @@
         <f t="array" ref="P25">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q25" s="58" t="str">
+      <c r="Q25" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R25" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R25" s="57" t="str">
+      <c r="S25" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="62">
         <v>24</v>
       </c>
@@ -5475,7 +5609,7 @@
         <v>140</v>
       </c>
       <c r="L26" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M26" s="56">
@@ -5494,16 +5628,20 @@
         <f t="array" ref="P26">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q26" s="58" t="str">
+      <c r="Q26" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R26" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R26" s="57" t="str">
+      <c r="S26" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="62">
         <v>25</v>
       </c>
@@ -5528,7 +5666,7 @@
         <v>142</v>
       </c>
       <c r="L27" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M27" s="56">
@@ -5547,16 +5685,20 @@
         <f t="array" ref="P27">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q27" s="58" t="str">
+      <c r="Q27" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R27" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R27" s="57" t="str">
+      <c r="S27" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62">
         <v>26</v>
       </c>
@@ -5581,7 +5723,7 @@
         <v>144</v>
       </c>
       <c r="L28" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M28" s="56">
@@ -5600,16 +5742,20 @@
         <f t="array" ref="P28">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q28" s="58" t="str">
+      <c r="Q28" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R28" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R28" s="57" t="str">
+      <c r="S28" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="62">
         <v>27</v>
       </c>
@@ -5634,7 +5780,7 @@
         <v>146</v>
       </c>
       <c r="L29" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M29" s="56">
@@ -5653,16 +5799,20 @@
         <f t="array" ref="P29">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q29" s="58" t="str">
+      <c r="Q29" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R29" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R29" s="57" t="str">
+      <c r="S29" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="62">
         <v>28</v>
       </c>
@@ -5687,7 +5837,7 @@
         <v>148</v>
       </c>
       <c r="L30" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M30" s="56">
@@ -5706,16 +5856,20 @@
         <f t="array" ref="P30">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q30" s="58" t="str">
+      <c r="Q30" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R30" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R30" s="57" t="str">
+      <c r="S30" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62">
         <v>29</v>
       </c>
@@ -5740,7 +5894,7 @@
         <v>150</v>
       </c>
       <c r="L31" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M31" s="56">
@@ -5759,16 +5913,20 @@
         <f t="array" ref="P31">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q31" s="58" t="str">
+      <c r="Q31" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R31" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R31" s="57" t="str">
+      <c r="S31" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="62">
         <v>30</v>
       </c>
@@ -5793,7 +5951,7 @@
         <v>152</v>
       </c>
       <c r="L32" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M32" s="56">
@@ -5812,16 +5970,20 @@
         <f t="array" ref="P32">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q32" s="58" t="str">
+      <c r="Q32" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R32" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R32" s="57" t="str">
+      <c r="S32" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="62">
         <v>31</v>
       </c>
@@ -5846,7 +6008,7 @@
         <v>154</v>
       </c>
       <c r="L33" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M33" s="56">
@@ -5865,16 +6027,20 @@
         <f t="array" ref="P33">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q33" s="58" t="str">
+      <c r="Q33" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R33" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R33" s="57" t="str">
+      <c r="S33" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="62">
         <v>32</v>
       </c>
@@ -5899,7 +6065,7 @@
         <v>156</v>
       </c>
       <c r="L34" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M34" s="56">
@@ -5918,16 +6084,20 @@
         <f t="array" ref="P34">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q34" s="58" t="str">
+      <c r="Q34" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R34" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R34" s="57" t="str">
+      <c r="S34" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62">
         <v>33</v>
       </c>
@@ -5952,7 +6122,7 @@
         <v>158</v>
       </c>
       <c r="L35" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M35" s="56">
@@ -5971,16 +6141,20 @@
         <f t="array" ref="P35">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q35" s="58" t="str">
-        <f t="shared" ref="Q35:Q66" si="1">IFERROR(SUM(endrepair_maxvol-P35),"")</f>
-        <v/>
-      </c>
-      <c r="R35" s="57" t="str">
+      <c r="Q35" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R35" s="58" t="str">
+        <f t="shared" ref="R35:R66" si="1">IFERROR(SUM(endrepair_maxvol-Q35),"")</f>
+        <v/>
+      </c>
+      <c r="S35" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62">
         <v>34</v>
       </c>
@@ -6005,7 +6179,7 @@
         <v>160</v>
       </c>
       <c r="L36" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M36" s="56">
@@ -6024,16 +6198,20 @@
         <f t="array" ref="P36">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q36" s="58" t="str">
+      <c r="Q36" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R36" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R36" s="57" t="str">
+      <c r="S36" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="62">
         <v>35</v>
       </c>
@@ -6058,7 +6236,7 @@
         <v>162</v>
       </c>
       <c r="L37" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M37" s="56">
@@ -6077,16 +6255,20 @@
         <f t="array" ref="P37">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q37" s="58" t="str">
+      <c r="Q37" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R37" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R37" s="57" t="str">
+      <c r="S37" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="62">
         <v>36</v>
       </c>
@@ -6111,7 +6293,7 @@
         <v>164</v>
       </c>
       <c r="L38" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M38" s="56">
@@ -6130,16 +6312,20 @@
         <f t="array" ref="P38">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q38" s="58" t="str">
+      <c r="Q38" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R38" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R38" s="57" t="str">
+      <c r="S38" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="62">
         <v>37</v>
       </c>
@@ -6164,7 +6350,7 @@
         <v>166</v>
       </c>
       <c r="L39" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M39" s="56">
@@ -6183,16 +6369,20 @@
         <f t="array" ref="P39">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q39" s="58" t="str">
+      <c r="Q39" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R39" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R39" s="57" t="str">
+      <c r="S39" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62">
         <v>38</v>
       </c>
@@ -6217,7 +6407,7 @@
         <v>168</v>
       </c>
       <c r="L40" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M40" s="56">
@@ -6236,16 +6426,20 @@
         <f t="array" ref="P40">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q40" s="58" t="str">
+      <c r="Q40" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R40" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R40" s="57" t="str">
+      <c r="S40" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62">
         <v>39</v>
       </c>
@@ -6270,7 +6464,7 @@
         <v>170</v>
       </c>
       <c r="L41" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M41" s="56">
@@ -6289,16 +6483,20 @@
         <f t="array" ref="P41">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q41" s="58" t="str">
+      <c r="Q41" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R41" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R41" s="57" t="str">
+      <c r="S41" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="62">
         <v>40</v>
       </c>
@@ -6323,7 +6521,7 @@
         <v>172</v>
       </c>
       <c r="L42" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M42" s="56">
@@ -6342,16 +6540,20 @@
         <f t="array" ref="P42">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q42" s="58" t="str">
+      <c r="Q42" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R42" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R42" s="57" t="str">
+      <c r="S42" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="62">
         <v>41</v>
       </c>
@@ -6376,7 +6578,7 @@
         <v>174</v>
       </c>
       <c r="L43" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M43" s="56">
@@ -6395,16 +6597,20 @@
         <f t="array" ref="P43">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q43" s="58" t="str">
+      <c r="Q43" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R43" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R43" s="57" t="str">
+      <c r="S43" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62">
         <v>42</v>
       </c>
@@ -6429,7 +6635,7 @@
         <v>176</v>
       </c>
       <c r="L44" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M44" s="56">
@@ -6448,16 +6654,20 @@
         <f t="array" ref="P44">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q44" s="58" t="str">
+      <c r="Q44" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R44" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R44" s="57" t="str">
+      <c r="S44" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="62">
         <v>43</v>
       </c>
@@ -6482,7 +6692,7 @@
         <v>178</v>
       </c>
       <c r="L45" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M45" s="56">
@@ -6501,16 +6711,20 @@
         <f t="array" ref="P45">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q45" s="58" t="str">
+      <c r="Q45" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R45" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R45" s="57" t="str">
+      <c r="S45" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="62">
         <v>44</v>
       </c>
@@ -6535,7 +6749,7 @@
         <v>180</v>
       </c>
       <c r="L46" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M46" s="56">
@@ -6554,16 +6768,20 @@
         <f t="array" ref="P46">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q46" s="58" t="str">
+      <c r="Q46" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R46" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R46" s="57" t="str">
+      <c r="S46" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="62">
         <v>45</v>
       </c>
@@ -6588,7 +6806,7 @@
         <v>182</v>
       </c>
       <c r="L47" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M47" s="56">
@@ -6607,16 +6825,20 @@
         <f t="array" ref="P47">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q47" s="58" t="str">
+      <c r="Q47" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R47" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R47" s="57" t="str">
+      <c r="S47" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62">
         <v>46</v>
       </c>
@@ -6641,7 +6863,7 @@
         <v>184</v>
       </c>
       <c r="L48" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M48" s="56">
@@ -6660,16 +6882,20 @@
         <f t="array" ref="P48">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q48" s="58" t="str">
+      <c r="Q48" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R48" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R48" s="57" t="str">
+      <c r="S48" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="62">
         <v>47</v>
       </c>
@@ -6694,7 +6920,7 @@
         <v>186</v>
       </c>
       <c r="L49" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M49" s="56">
@@ -6713,16 +6939,20 @@
         <f t="array" ref="P49">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q49" s="58" t="str">
+      <c r="Q49" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R49" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R49" s="57" t="str">
+      <c r="S49" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="62">
         <v>48</v>
       </c>
@@ -6747,7 +6977,7 @@
         <v>188</v>
       </c>
       <c r="L50" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M50" s="56">
@@ -6766,16 +6996,20 @@
         <f t="array" ref="P50">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q50" s="58" t="str">
+      <c r="Q50" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R50" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R50" s="57" t="str">
+      <c r="S50" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="62">
         <v>49</v>
       </c>
@@ -6800,7 +7034,7 @@
         <v>190</v>
       </c>
       <c r="L51" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M51" s="56">
@@ -6819,16 +7053,20 @@
         <f t="array" ref="P51">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q51" s="58" t="str">
+      <c r="Q51" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R51" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R51" s="57" t="str">
+      <c r="S51" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62">
         <v>50</v>
       </c>
@@ -6853,7 +7091,7 @@
         <v>192</v>
       </c>
       <c r="L52" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M52" s="56">
@@ -6872,16 +7110,20 @@
         <f t="array" ref="P52">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q52" s="58" t="str">
+      <c r="Q52" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R52" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R52" s="57" t="str">
+      <c r="S52" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62">
         <v>51</v>
       </c>
@@ -6906,7 +7148,7 @@
         <v>194</v>
       </c>
       <c r="L53" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M53" s="56">
@@ -6925,16 +7167,20 @@
         <f t="array" ref="P53">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q53" s="58" t="str">
+      <c r="Q53" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R53" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R53" s="57" t="str">
+      <c r="S53" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62">
         <v>52</v>
       </c>
@@ -6959,7 +7205,7 @@
         <v>196</v>
       </c>
       <c r="L54" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M54" s="56">
@@ -6978,16 +7224,20 @@
         <f t="array" ref="P54">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q54" s="58" t="str">
+      <c r="Q54" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R54" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R54" s="57" t="str">
+      <c r="S54" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="62">
         <v>53</v>
       </c>
@@ -7012,7 +7262,7 @@
         <v>198</v>
       </c>
       <c r="L55" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M55" s="56">
@@ -7031,16 +7281,20 @@
         <f t="array" ref="P55">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q55" s="58" t="str">
+      <c r="Q55" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R55" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R55" s="57" t="str">
+      <c r="S55" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="62">
         <v>54</v>
       </c>
@@ -7065,7 +7319,7 @@
         <v>200</v>
       </c>
       <c r="L56" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M56" s="56">
@@ -7084,16 +7338,20 @@
         <f t="array" ref="P56">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q56" s="58" t="str">
+      <c r="Q56" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R56" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R56" s="57" t="str">
+      <c r="S56" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="62">
         <v>55</v>
       </c>
@@ -7118,7 +7376,7 @@
         <v>202</v>
       </c>
       <c r="L57" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M57" s="56">
@@ -7137,16 +7395,20 @@
         <f t="array" ref="P57">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q57" s="58" t="str">
+      <c r="Q57" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R57" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R57" s="57" t="str">
+      <c r="S57" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="62">
         <v>56</v>
       </c>
@@ -7171,7 +7433,7 @@
         <v>204</v>
       </c>
       <c r="L58" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M58" s="56">
@@ -7190,16 +7452,20 @@
         <f t="array" ref="P58">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q58" s="58" t="str">
+      <c r="Q58" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R58" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R58" s="57" t="str">
+      <c r="S58" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="62">
         <v>57</v>
       </c>
@@ -7224,7 +7490,7 @@
         <v>206</v>
       </c>
       <c r="L59" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M59" s="56">
@@ -7243,16 +7509,20 @@
         <f t="array" ref="P59">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q59" s="58" t="str">
+      <c r="Q59" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R59" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R59" s="57" t="str">
+      <c r="S59" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="62">
         <v>58</v>
       </c>
@@ -7277,7 +7547,7 @@
         <v>208</v>
       </c>
       <c r="L60" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M60" s="56">
@@ -7296,16 +7566,20 @@
         <f t="array" ref="P60">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q60" s="58" t="str">
+      <c r="Q60" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R60" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R60" s="57" t="str">
+      <c r="S60" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="62">
         <v>59</v>
       </c>
@@ -7330,7 +7604,7 @@
         <v>210</v>
       </c>
       <c r="L61" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M61" s="56">
@@ -7349,16 +7623,20 @@
         <f t="array" ref="P61">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q61" s="58" t="str">
+      <c r="Q61" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R61" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R61" s="57" t="str">
+      <c r="S61" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="62">
         <v>60</v>
       </c>
@@ -7383,7 +7661,7 @@
         <v>212</v>
       </c>
       <c r="L62" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M62" s="56">
@@ -7402,16 +7680,20 @@
         <f t="array" ref="P62">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q62" s="58" t="str">
+      <c r="Q62" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R62" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R62" s="57" t="str">
+      <c r="S62" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="62">
         <v>61</v>
       </c>
@@ -7436,7 +7718,7 @@
         <v>214</v>
       </c>
       <c r="L63" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M63" s="56">
@@ -7455,16 +7737,20 @@
         <f t="array" ref="P63">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q63" s="58" t="str">
+      <c r="Q63" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R63" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R63" s="57" t="str">
+      <c r="S63" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="62">
         <v>62</v>
       </c>
@@ -7489,7 +7775,7 @@
         <v>216</v>
       </c>
       <c r="L64" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M64" s="56">
@@ -7508,16 +7794,20 @@
         <f t="array" ref="P64">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q64" s="58" t="str">
+      <c r="Q64" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R64" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R64" s="57" t="str">
+      <c r="S64" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="62">
         <v>63</v>
       </c>
@@ -7542,7 +7832,7 @@
         <v>218</v>
       </c>
       <c r="L65" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M65" s="56">
@@ -7561,16 +7851,20 @@
         <f t="array" ref="P65">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q65" s="58" t="str">
+      <c r="Q65" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R65" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R65" s="57" t="str">
+      <c r="S65" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="62">
         <v>64</v>
       </c>
@@ -7595,7 +7889,7 @@
         <v>220</v>
       </c>
       <c r="L66" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M66" s="56">
@@ -7614,16 +7908,20 @@
         <f t="array" ref="P66">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q66" s="58" t="str">
+      <c r="Q66" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R66" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R66" s="57" t="str">
+      <c r="S66" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="62">
         <v>65</v>
       </c>
@@ -7648,7 +7946,7 @@
         <v>222</v>
       </c>
       <c r="L67" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M67" s="56">
@@ -7667,16 +7965,20 @@
         <f t="array" ref="P67">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q67" s="58" t="str">
-        <f t="shared" ref="Q67:Q98" si="2">IFERROR(SUM(endrepair_maxvol-P67),"")</f>
-        <v/>
-      </c>
-      <c r="R67" s="57" t="str">
+      <c r="Q67" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R67" s="58" t="str">
+        <f t="shared" ref="R67:R98" si="2">IFERROR(SUM(endrepair_maxvol-Q67),"")</f>
+        <v/>
+      </c>
+      <c r="S67" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="62">
         <v>66</v>
       </c>
@@ -7701,7 +8003,7 @@
         <v>224</v>
       </c>
       <c r="L68" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M68" s="56">
@@ -7720,16 +8022,20 @@
         <f t="array" ref="P68">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q68" s="58" t="str">
+      <c r="Q68" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R68" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R68" s="57" t="str">
+      <c r="S68" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="62">
         <v>67</v>
       </c>
@@ -7754,7 +8060,7 @@
         <v>226</v>
       </c>
       <c r="L69" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M69" s="56">
@@ -7773,16 +8079,20 @@
         <f t="array" ref="P69">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q69" s="58" t="str">
+      <c r="Q69" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R69" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R69" s="57" t="str">
+      <c r="S69" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="62">
         <v>68</v>
       </c>
@@ -7807,7 +8117,7 @@
         <v>228</v>
       </c>
       <c r="L70" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M70" s="56">
@@ -7826,16 +8136,20 @@
         <f t="array" ref="P70">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q70" s="58" t="str">
+      <c r="Q70" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R70" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R70" s="57" t="str">
+      <c r="S70" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="62">
         <v>69</v>
       </c>
@@ -7860,7 +8174,7 @@
         <v>230</v>
       </c>
       <c r="L71" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M71" s="56">
@@ -7879,16 +8193,20 @@
         <f t="array" ref="P71">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q71" s="58" t="str">
+      <c r="Q71" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R71" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R71" s="57" t="str">
+      <c r="S71" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="62">
         <v>70</v>
       </c>
@@ -7913,7 +8231,7 @@
         <v>232</v>
       </c>
       <c r="L72" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M72" s="56">
@@ -7932,16 +8250,20 @@
         <f t="array" ref="P72">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q72" s="58" t="str">
+      <c r="Q72" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R72" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R72" s="57" t="str">
+      <c r="S72" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="62">
         <v>71</v>
       </c>
@@ -7966,7 +8288,7 @@
         <v>234</v>
       </c>
       <c r="L73" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M73" s="56">
@@ -7985,16 +8307,20 @@
         <f t="array" ref="P73">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q73" s="58" t="str">
+      <c r="Q73" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R73" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R73" s="57" t="str">
+      <c r="S73" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="62">
         <v>72</v>
       </c>
@@ -8019,7 +8345,7 @@
         <v>236</v>
       </c>
       <c r="L74" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M74" s="56">
@@ -8038,16 +8364,20 @@
         <f t="array" ref="P74">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q74" s="58" t="str">
+      <c r="Q74" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R74" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R74" s="57" t="str">
+      <c r="S74" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="62">
         <v>73</v>
       </c>
@@ -8072,7 +8402,7 @@
         <v>238</v>
       </c>
       <c r="L75" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M75" s="56">
@@ -8091,16 +8421,20 @@
         <f t="array" ref="P75">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q75" s="58" t="str">
+      <c r="Q75" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R75" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R75" s="57" t="str">
+      <c r="S75" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="62">
         <v>74</v>
       </c>
@@ -8125,7 +8459,7 @@
         <v>240</v>
       </c>
       <c r="L76" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M76" s="56">
@@ -8144,16 +8478,20 @@
         <f t="array" ref="P76">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q76" s="58" t="str">
+      <c r="Q76" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R76" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R76" s="57" t="str">
+      <c r="S76" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="62">
         <v>75</v>
       </c>
@@ -8178,7 +8516,7 @@
         <v>242</v>
       </c>
       <c r="L77" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M77" s="56">
@@ -8197,16 +8535,20 @@
         <f t="array" ref="P77">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q77" s="58" t="str">
+      <c r="Q77" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R77" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R77" s="57" t="str">
+      <c r="S77" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="62">
         <v>76</v>
       </c>
@@ -8231,7 +8573,7 @@
         <v>244</v>
       </c>
       <c r="L78" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M78" s="56">
@@ -8250,16 +8592,20 @@
         <f t="array" ref="P78">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q78" s="58" t="str">
+      <c r="Q78" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R78" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R78" s="57" t="str">
+      <c r="S78" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="62">
         <v>77</v>
       </c>
@@ -8284,7 +8630,7 @@
         <v>246</v>
       </c>
       <c r="L79" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M79" s="56">
@@ -8303,16 +8649,20 @@
         <f t="array" ref="P79">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q79" s="58" t="str">
+      <c r="Q79" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R79" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R79" s="57" t="str">
+      <c r="S79" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="62">
         <v>78</v>
       </c>
@@ -8337,7 +8687,7 @@
         <v>248</v>
       </c>
       <c r="L80" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M80" s="56">
@@ -8356,16 +8706,20 @@
         <f t="array" ref="P80">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q80" s="58" t="str">
+      <c r="Q80" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R80" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R80" s="57" t="str">
+      <c r="S80" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="62">
         <v>79</v>
       </c>
@@ -8390,7 +8744,7 @@
         <v>250</v>
       </c>
       <c r="L81" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M81" s="56">
@@ -8409,16 +8763,20 @@
         <f t="array" ref="P81">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q81" s="58" t="str">
+      <c r="Q81" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R81" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R81" s="57" t="str">
+      <c r="S81" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62">
         <v>80</v>
       </c>
@@ -8443,7 +8801,7 @@
         <v>252</v>
       </c>
       <c r="L82" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M82" s="56">
@@ -8462,16 +8820,20 @@
         <f t="array" ref="P82">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q82" s="58" t="str">
+      <c r="Q82" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R82" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R82" s="57" t="str">
+      <c r="S82" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="62">
         <v>81</v>
       </c>
@@ -8496,7 +8858,7 @@
         <v>254</v>
       </c>
       <c r="L83" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M83" s="56">
@@ -8515,16 +8877,20 @@
         <f t="array" ref="P83">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q83" s="58" t="str">
+      <c r="Q83" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R83" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R83" s="57" t="str">
+      <c r="S83" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="62">
         <v>82</v>
       </c>
@@ -8549,7 +8915,7 @@
         <v>256</v>
       </c>
       <c r="L84" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M84" s="56">
@@ -8568,16 +8934,20 @@
         <f t="array" ref="P84">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q84" s="58" t="str">
+      <c r="Q84" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R84" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R84" s="57" t="str">
+      <c r="S84" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="62">
         <v>83</v>
       </c>
@@ -8602,7 +8972,7 @@
         <v>258</v>
       </c>
       <c r="L85" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M85" s="56">
@@ -8621,16 +8991,20 @@
         <f t="array" ref="P85">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q85" s="58" t="str">
+      <c r="Q85" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R85" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R85" s="57" t="str">
+      <c r="S85" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="62">
         <v>84</v>
       </c>
@@ -8655,7 +9029,7 @@
         <v>260</v>
       </c>
       <c r="L86" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M86" s="56">
@@ -8674,16 +9048,20 @@
         <f t="array" ref="P86">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q86" s="58" t="str">
+      <c r="Q86" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R86" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R86" s="57" t="str">
+      <c r="S86" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="62">
         <v>85</v>
       </c>
@@ -8708,7 +9086,7 @@
         <v>262</v>
       </c>
       <c r="L87" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M87" s="56">
@@ -8727,16 +9105,20 @@
         <f t="array" ref="P87">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q87" s="58" t="str">
+      <c r="Q87" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R87" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R87" s="57" t="str">
+      <c r="S87" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="62">
         <v>86</v>
       </c>
@@ -8761,7 +9143,7 @@
         <v>264</v>
       </c>
       <c r="L88" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M88" s="56">
@@ -8780,16 +9162,20 @@
         <f t="array" ref="P88">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q88" s="58" t="str">
+      <c r="Q88" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R88" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R88" s="57" t="str">
+      <c r="S88" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="62">
         <v>87</v>
       </c>
@@ -8814,7 +9200,7 @@
         <v>266</v>
       </c>
       <c r="L89" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M89" s="56">
@@ -8833,16 +9219,20 @@
         <f t="array" ref="P89">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q89" s="58" t="str">
+      <c r="Q89" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R89" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R89" s="57" t="str">
+      <c r="S89" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="62">
         <v>88</v>
       </c>
@@ -8867,7 +9257,7 @@
         <v>268</v>
       </c>
       <c r="L90" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M90" s="56">
@@ -8886,16 +9276,20 @@
         <f t="array" ref="P90">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q90" s="58" t="str">
+      <c r="Q90" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R90" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R90" s="57" t="str">
+      <c r="S90" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="62">
         <v>89</v>
       </c>
@@ -8920,7 +9314,7 @@
         <v>270</v>
       </c>
       <c r="L91" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M91" s="56">
@@ -8939,16 +9333,20 @@
         <f t="array" ref="P91">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q91" s="58" t="str">
+      <c r="Q91" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R91" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R91" s="57" t="str">
+      <c r="S91" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="62">
         <v>90</v>
       </c>
@@ -8973,7 +9371,7 @@
         <v>272</v>
       </c>
       <c r="L92" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M92" s="56">
@@ -8992,16 +9390,20 @@
         <f t="array" ref="P92">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q92" s="58" t="str">
+      <c r="Q92" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R92" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R92" s="57" t="str">
+      <c r="S92" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="62">
         <v>91</v>
       </c>
@@ -9026,7 +9428,7 @@
         <v>274</v>
       </c>
       <c r="L93" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M93" s="56">
@@ -9045,16 +9447,20 @@
         <f t="array" ref="P93">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q93" s="58" t="str">
+      <c r="Q93" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R93" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R93" s="57" t="str">
+      <c r="S93" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="62">
         <v>92</v>
       </c>
@@ -9079,7 +9485,7 @@
         <v>276</v>
       </c>
       <c r="L94" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M94" s="56">
@@ -9098,16 +9504,20 @@
         <f t="array" ref="P94">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q94" s="58" t="str">
+      <c r="Q94" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R94" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R94" s="57" t="str">
+      <c r="S94" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="62">
         <v>93</v>
       </c>
@@ -9132,7 +9542,7 @@
         <v>278</v>
       </c>
       <c r="L95" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M95" s="56">
@@ -9151,16 +9561,20 @@
         <f t="array" ref="P95">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q95" s="58" t="str">
+      <c r="Q95" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R95" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R95" s="57" t="str">
+      <c r="S95" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="62">
         <v>94</v>
       </c>
@@ -9185,7 +9599,7 @@
         <v>280</v>
       </c>
       <c r="L96" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M96" s="56">
@@ -9204,16 +9618,20 @@
         <f t="array" ref="P96">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q96" s="58" t="str">
+      <c r="Q96" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R96" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R96" s="57" t="str">
+      <c r="S96" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="62">
         <v>95</v>
       </c>
@@ -9238,7 +9656,7 @@
         <v>282</v>
       </c>
       <c r="L97" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M97" s="56">
@@ -9257,16 +9675,20 @@
         <f t="array" ref="P97">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q97" s="58" t="str">
+      <c r="Q97" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R97" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R97" s="57" t="str">
+      <c r="S97" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="64">
         <v>96</v>
       </c>
@@ -9291,35 +9713,39 @@
         <v>284</v>
       </c>
       <c r="L98" s="56" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,ROUNDUP(SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]),1))),"")</f>
         <v/>
       </c>
       <c r="M98" s="56">
         <f>ROUNDUP(_xlfn.MINIFS(tbl_SeqLib[PCR prodct (µl) to add (exact)],tbl_SeqLib[Column],tbl_SeqLib[[#This Row],[Column]]),1)</f>
         <v>0</v>
       </c>
-      <c r="N98" s="110">
+      <c r="N98" s="67">
         <f>ROUNDDOWN(_xlfn.MAXIFS(tbl_SeqLib[PCR prodct (µl) to add (exact)],tbl_SeqLib[Column],tbl_SeqLib[[#This Row],[Column]]),1)</f>
         <v>0</v>
       </c>
-      <c r="O98" s="110" t="e">
+      <c r="O98" s="67" t="e">
         <f>ROUNDUP(AVERAGEIFS(tbl_SeqLib[PCR prodct (µl) to add (exact)],tbl_SeqLib[Column],tbl_SeqLib[[#This Row],[Column]]),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P98" s="56" t="str" cm="1">
+      <c r="P98" s="67" t="str" cm="1">
         <f t="array" ref="P98">IF(tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]="","",_xlfn.XLOOKUP(0,ABS(tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]]-tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]]),tbl_SeqLib[[#This Row],[Min vol for col]:[Av vol for col]],,1))</f>
         <v/>
       </c>
-      <c r="Q98" s="59" t="str">
+      <c r="Q98" s="56" t="str">
+        <f>IF(endrepair_vol_calculation_type="general",tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (general)]],tbl_SeqLib[[#This Row],[PCR prodct (µl) to add (exact)]])</f>
+        <v/>
+      </c>
+      <c r="R98" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R98" s="57" t="str">
+      <c r="S98" s="57" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -9328,7 +9754,7 @@
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -9336,7 +9762,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -9344,7 +9770,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -9352,7 +9778,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -9360,7 +9786,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -9368,7 +9794,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -9376,7 +9802,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -9384,7 +9810,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -9392,7 +9818,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -9400,7 +9826,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -9408,7 +9834,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -9416,7 +9842,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -9429,11 +9855,11 @@
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="K1:S1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="K3:K98 D1:I98">
-    <cfRule type="expression" dxfId="5" priority="2">
+  <conditionalFormatting sqref="D1:I98 K3:K98">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>COUNTIF(D1,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9459,7 +9885,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9577,6 +10003,15 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" t="s">
+        <v>394</v>
+      </c>
       <c r="E6" s="31" t="s">
         <v>354</v>
       </c>
@@ -9584,12 +10019,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E7" s="65">
         <v>100</v>
       </c>
@@ -9597,13 +10027,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>318</v>
-      </c>
+    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="E8" s="65">
         <v>50</v>
       </c>
@@ -9613,16 +10042,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
+        <v>317</v>
+      </c>
+      <c r="B9" t="s">
+        <v>318</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
       <c r="E10" s="31" t="s">
         <v>375</v>
       </c>
@@ -9630,17 +10065,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>350</v>
-      </c>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" s="65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>389</v>
+    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>350</v>
       </c>
       <c r="E12" s="65" t="s">
         <v>376</v>
@@ -9652,13 +10084,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>390</v>
+      </c>
       <c r="E14" s="65" t="s">
         <v>378</v>
       </c>
@@ -9704,9 +10139,7 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10094,9 +10527,9 @@
         <f>IF(LEN(exp_rxns)=0,"",exp_rxns)</f>
         <v/>
       </c>
-      <c r="I2">
+      <c r="I2" t="str">
         <f>IF(LEN(endrepair_targetmass)=0,"",endrepair_targetmass)</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="J2">
         <f>IF(LEN(endrepair_maxvol)=0,"",endrepair_maxvol)</f>
@@ -10173,7 +10606,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10234,7 +10667,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <f>IF(LEN(Library!R3)=0,"",Library!R3)</f>
+        <f>IF(LEN(Library!S3)=0,"",Library!S3)</f>
         <v/>
       </c>
       <c r="G2" t="str">
@@ -10242,7 +10675,7 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <f>IF(LEN(Library!P3)=0,"",Library!P3)</f>
+        <f>IF(LEN(Library!Q3)=0,"",Library!Q3)</f>
         <v/>
       </c>
     </row>
@@ -10268,7 +10701,7 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <f>IF(LEN(Library!R4)=0,"",Library!R4)</f>
+        <f>IF(LEN(Library!S4)=0,"",Library!S4)</f>
         <v/>
       </c>
       <c r="G3" t="str">
@@ -10276,7 +10709,7 @@
         <v/>
       </c>
       <c r="H3" t="str">
-        <f>IF(LEN(Library!P4)=0,"",Library!P4)</f>
+        <f>IF(LEN(Library!Q4)=0,"",Library!Q4)</f>
         <v/>
       </c>
     </row>
@@ -10302,7 +10735,7 @@
         <v/>
       </c>
       <c r="F4" t="str">
-        <f>IF(LEN(Library!R5)=0,"",Library!R5)</f>
+        <f>IF(LEN(Library!S5)=0,"",Library!S5)</f>
         <v/>
       </c>
       <c r="G4" t="str">
@@ -10310,7 +10743,7 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <f>IF(LEN(Library!P5)=0,"",Library!P5)</f>
+        <f>IF(LEN(Library!Q5)=0,"",Library!Q5)</f>
         <v/>
       </c>
     </row>
@@ -10336,7 +10769,7 @@
         <v/>
       </c>
       <c r="F5" t="str">
-        <f>IF(LEN(Library!R6)=0,"",Library!R6)</f>
+        <f>IF(LEN(Library!S6)=0,"",Library!S6)</f>
         <v/>
       </c>
       <c r="G5" t="str">
@@ -10344,7 +10777,7 @@
         <v/>
       </c>
       <c r="H5" t="str">
-        <f>IF(LEN(Library!P6)=0,"",Library!P6)</f>
+        <f>IF(LEN(Library!Q6)=0,"",Library!Q6)</f>
         <v/>
       </c>
     </row>
@@ -10370,7 +10803,7 @@
         <v/>
       </c>
       <c r="F6" t="str">
-        <f>IF(LEN(Library!R7)=0,"",Library!R7)</f>
+        <f>IF(LEN(Library!S7)=0,"",Library!S7)</f>
         <v/>
       </c>
       <c r="G6" t="str">
@@ -10378,7 +10811,7 @@
         <v/>
       </c>
       <c r="H6" t="str">
-        <f>IF(LEN(Library!P7)=0,"",Library!P7)</f>
+        <f>IF(LEN(Library!Q7)=0,"",Library!Q7)</f>
         <v/>
       </c>
     </row>
@@ -10404,7 +10837,7 @@
         <v/>
       </c>
       <c r="F7" t="str">
-        <f>IF(LEN(Library!R8)=0,"",Library!R8)</f>
+        <f>IF(LEN(Library!S8)=0,"",Library!S8)</f>
         <v/>
       </c>
       <c r="G7" t="str">
@@ -10412,7 +10845,7 @@
         <v/>
       </c>
       <c r="H7" t="str">
-        <f>IF(LEN(Library!P8)=0,"",Library!P8)</f>
+        <f>IF(LEN(Library!Q8)=0,"",Library!Q8)</f>
         <v/>
       </c>
     </row>
@@ -10438,7 +10871,7 @@
         <v/>
       </c>
       <c r="F8" t="str">
-        <f>IF(LEN(Library!R9)=0,"",Library!R9)</f>
+        <f>IF(LEN(Library!S9)=0,"",Library!S9)</f>
         <v/>
       </c>
       <c r="G8" t="str">
@@ -10446,7 +10879,7 @@
         <v/>
       </c>
       <c r="H8" t="str">
-        <f>IF(LEN(Library!P9)=0,"",Library!P9)</f>
+        <f>IF(LEN(Library!Q9)=0,"",Library!Q9)</f>
         <v/>
       </c>
     </row>
@@ -10472,7 +10905,7 @@
         <v/>
       </c>
       <c r="F9" t="str">
-        <f>IF(LEN(Library!R10)=0,"",Library!R10)</f>
+        <f>IF(LEN(Library!S10)=0,"",Library!S10)</f>
         <v/>
       </c>
       <c r="G9" t="str">
@@ -10480,7 +10913,7 @@
         <v/>
       </c>
       <c r="H9" t="str">
-        <f>IF(LEN(Library!P10)=0,"",Library!P10)</f>
+        <f>IF(LEN(Library!Q10)=0,"",Library!Q10)</f>
         <v/>
       </c>
     </row>
@@ -10506,7 +10939,7 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <f>IF(LEN(Library!R11)=0,"",Library!R11)</f>
+        <f>IF(LEN(Library!S11)=0,"",Library!S11)</f>
         <v/>
       </c>
       <c r="G10" t="str">
@@ -10514,7 +10947,7 @@
         <v/>
       </c>
       <c r="H10" t="str">
-        <f>IF(LEN(Library!P11)=0,"",Library!P11)</f>
+        <f>IF(LEN(Library!Q11)=0,"",Library!Q11)</f>
         <v/>
       </c>
     </row>
@@ -10540,7 +10973,7 @@
         <v/>
       </c>
       <c r="F11" t="str">
-        <f>IF(LEN(Library!R12)=0,"",Library!R12)</f>
+        <f>IF(LEN(Library!S12)=0,"",Library!S12)</f>
         <v/>
       </c>
       <c r="G11" t="str">
@@ -10548,7 +10981,7 @@
         <v/>
       </c>
       <c r="H11" t="str">
-        <f>IF(LEN(Library!P12)=0,"",Library!P12)</f>
+        <f>IF(LEN(Library!Q12)=0,"",Library!Q12)</f>
         <v/>
       </c>
     </row>
@@ -10574,7 +11007,7 @@
         <v/>
       </c>
       <c r="F12" t="str">
-        <f>IF(LEN(Library!R13)=0,"",Library!R13)</f>
+        <f>IF(LEN(Library!S13)=0,"",Library!S13)</f>
         <v/>
       </c>
       <c r="G12" t="str">
@@ -10582,7 +11015,7 @@
         <v/>
       </c>
       <c r="H12" t="str">
-        <f>IF(LEN(Library!P13)=0,"",Library!P13)</f>
+        <f>IF(LEN(Library!Q13)=0,"",Library!Q13)</f>
         <v/>
       </c>
     </row>
@@ -10608,7 +11041,7 @@
         <v/>
       </c>
       <c r="F13" t="str">
-        <f>IF(LEN(Library!R14)=0,"",Library!R14)</f>
+        <f>IF(LEN(Library!S14)=0,"",Library!S14)</f>
         <v/>
       </c>
       <c r="G13" t="str">
@@ -10616,7 +11049,7 @@
         <v/>
       </c>
       <c r="H13" t="str">
-        <f>IF(LEN(Library!P14)=0,"",Library!P14)</f>
+        <f>IF(LEN(Library!Q14)=0,"",Library!Q14)</f>
         <v/>
       </c>
     </row>
@@ -10642,7 +11075,7 @@
         <v/>
       </c>
       <c r="F14" t="str">
-        <f>IF(LEN(Library!R15)=0,"",Library!R15)</f>
+        <f>IF(LEN(Library!S15)=0,"",Library!S15)</f>
         <v/>
       </c>
       <c r="G14" t="str">
@@ -10650,7 +11083,7 @@
         <v/>
       </c>
       <c r="H14" t="str">
-        <f>IF(LEN(Library!P15)=0,"",Library!P15)</f>
+        <f>IF(LEN(Library!Q15)=0,"",Library!Q15)</f>
         <v/>
       </c>
     </row>
@@ -10676,7 +11109,7 @@
         <v/>
       </c>
       <c r="F15" t="str">
-        <f>IF(LEN(Library!R16)=0,"",Library!R16)</f>
+        <f>IF(LEN(Library!S16)=0,"",Library!S16)</f>
         <v/>
       </c>
       <c r="G15" t="str">
@@ -10684,7 +11117,7 @@
         <v/>
       </c>
       <c r="H15" t="str">
-        <f>IF(LEN(Library!P16)=0,"",Library!P16)</f>
+        <f>IF(LEN(Library!Q16)=0,"",Library!Q16)</f>
         <v/>
       </c>
     </row>
@@ -10710,7 +11143,7 @@
         <v/>
       </c>
       <c r="F16" t="str">
-        <f>IF(LEN(Library!R17)=0,"",Library!R17)</f>
+        <f>IF(LEN(Library!S17)=0,"",Library!S17)</f>
         <v/>
       </c>
       <c r="G16" t="str">
@@ -10718,7 +11151,7 @@
         <v/>
       </c>
       <c r="H16" t="str">
-        <f>IF(LEN(Library!P17)=0,"",Library!P17)</f>
+        <f>IF(LEN(Library!Q17)=0,"",Library!Q17)</f>
         <v/>
       </c>
     </row>
@@ -10744,7 +11177,7 @@
         <v/>
       </c>
       <c r="F17" t="str">
-        <f>IF(LEN(Library!R18)=0,"",Library!R18)</f>
+        <f>IF(LEN(Library!S18)=0,"",Library!S18)</f>
         <v/>
       </c>
       <c r="G17" t="str">
@@ -10752,7 +11185,7 @@
         <v/>
       </c>
       <c r="H17" t="str">
-        <f>IF(LEN(Library!P18)=0,"",Library!P18)</f>
+        <f>IF(LEN(Library!Q18)=0,"",Library!Q18)</f>
         <v/>
       </c>
     </row>
@@ -10778,7 +11211,7 @@
         <v/>
       </c>
       <c r="F18" t="str">
-        <f>IF(LEN(Library!R19)=0,"",Library!R19)</f>
+        <f>IF(LEN(Library!S19)=0,"",Library!S19)</f>
         <v/>
       </c>
       <c r="G18" t="str">
@@ -10786,7 +11219,7 @@
         <v/>
       </c>
       <c r="H18" t="str">
-        <f>IF(LEN(Library!P19)=0,"",Library!P19)</f>
+        <f>IF(LEN(Library!Q19)=0,"",Library!Q19)</f>
         <v/>
       </c>
     </row>
@@ -10812,7 +11245,7 @@
         <v/>
       </c>
       <c r="F19" t="str">
-        <f>IF(LEN(Library!R20)=0,"",Library!R20)</f>
+        <f>IF(LEN(Library!S20)=0,"",Library!S20)</f>
         <v/>
       </c>
       <c r="G19" t="str">
@@ -10820,7 +11253,7 @@
         <v/>
       </c>
       <c r="H19" t="str">
-        <f>IF(LEN(Library!P20)=0,"",Library!P20)</f>
+        <f>IF(LEN(Library!Q20)=0,"",Library!Q20)</f>
         <v/>
       </c>
     </row>
@@ -10846,7 +11279,7 @@
         <v/>
       </c>
       <c r="F20" t="str">
-        <f>IF(LEN(Library!R21)=0,"",Library!R21)</f>
+        <f>IF(LEN(Library!S21)=0,"",Library!S21)</f>
         <v/>
       </c>
       <c r="G20" t="str">
@@ -10854,7 +11287,7 @@
         <v/>
       </c>
       <c r="H20" t="str">
-        <f>IF(LEN(Library!P21)=0,"",Library!P21)</f>
+        <f>IF(LEN(Library!Q21)=0,"",Library!Q21)</f>
         <v/>
       </c>
     </row>
@@ -10880,7 +11313,7 @@
         <v/>
       </c>
       <c r="F21" t="str">
-        <f>IF(LEN(Library!R22)=0,"",Library!R22)</f>
+        <f>IF(LEN(Library!S22)=0,"",Library!S22)</f>
         <v/>
       </c>
       <c r="G21" t="str">
@@ -10888,7 +11321,7 @@
         <v/>
       </c>
       <c r="H21" t="str">
-        <f>IF(LEN(Library!P22)=0,"",Library!P22)</f>
+        <f>IF(LEN(Library!Q22)=0,"",Library!Q22)</f>
         <v/>
       </c>
     </row>
@@ -10914,7 +11347,7 @@
         <v/>
       </c>
       <c r="F22" t="str">
-        <f>IF(LEN(Library!R23)=0,"",Library!R23)</f>
+        <f>IF(LEN(Library!S23)=0,"",Library!S23)</f>
         <v/>
       </c>
       <c r="G22" t="str">
@@ -10922,7 +11355,7 @@
         <v/>
       </c>
       <c r="H22" t="str">
-        <f>IF(LEN(Library!P23)=0,"",Library!P23)</f>
+        <f>IF(LEN(Library!Q23)=0,"",Library!Q23)</f>
         <v/>
       </c>
     </row>
@@ -10948,7 +11381,7 @@
         <v/>
       </c>
       <c r="F23" t="str">
-        <f>IF(LEN(Library!R24)=0,"",Library!R24)</f>
+        <f>IF(LEN(Library!S24)=0,"",Library!S24)</f>
         <v/>
       </c>
       <c r="G23" t="str">
@@ -10956,7 +11389,7 @@
         <v/>
       </c>
       <c r="H23" t="str">
-        <f>IF(LEN(Library!P24)=0,"",Library!P24)</f>
+        <f>IF(LEN(Library!Q24)=0,"",Library!Q24)</f>
         <v/>
       </c>
     </row>
@@ -10982,7 +11415,7 @@
         <v/>
       </c>
       <c r="F24" t="str">
-        <f>IF(LEN(Library!R25)=0,"",Library!R25)</f>
+        <f>IF(LEN(Library!S25)=0,"",Library!S25)</f>
         <v/>
       </c>
       <c r="G24" t="str">
@@ -10990,7 +11423,7 @@
         <v/>
       </c>
       <c r="H24" t="str">
-        <f>IF(LEN(Library!P25)=0,"",Library!P25)</f>
+        <f>IF(LEN(Library!Q25)=0,"",Library!Q25)</f>
         <v/>
       </c>
     </row>
@@ -11016,7 +11449,7 @@
         <v/>
       </c>
       <c r="F25" t="str">
-        <f>IF(LEN(Library!R26)=0,"",Library!R26)</f>
+        <f>IF(LEN(Library!S26)=0,"",Library!S26)</f>
         <v/>
       </c>
       <c r="G25" t="str">
@@ -11024,7 +11457,7 @@
         <v/>
       </c>
       <c r="H25" t="str">
-        <f>IF(LEN(Library!P26)=0,"",Library!P26)</f>
+        <f>IF(LEN(Library!Q26)=0,"",Library!Q26)</f>
         <v/>
       </c>
     </row>
@@ -11050,7 +11483,7 @@
         <v/>
       </c>
       <c r="F26" t="str">
-        <f>IF(LEN(Library!R27)=0,"",Library!R27)</f>
+        <f>IF(LEN(Library!S27)=0,"",Library!S27)</f>
         <v/>
       </c>
       <c r="G26" t="str">
@@ -11058,7 +11491,7 @@
         <v/>
       </c>
       <c r="H26" t="str">
-        <f>IF(LEN(Library!P27)=0,"",Library!P27)</f>
+        <f>IF(LEN(Library!Q27)=0,"",Library!Q27)</f>
         <v/>
       </c>
     </row>
@@ -11084,7 +11517,7 @@
         <v/>
       </c>
       <c r="F27" t="str">
-        <f>IF(LEN(Library!R28)=0,"",Library!R28)</f>
+        <f>IF(LEN(Library!S28)=0,"",Library!S28)</f>
         <v/>
       </c>
       <c r="G27" t="str">
@@ -11092,7 +11525,7 @@
         <v/>
       </c>
       <c r="H27" t="str">
-        <f>IF(LEN(Library!P28)=0,"",Library!P28)</f>
+        <f>IF(LEN(Library!Q28)=0,"",Library!Q28)</f>
         <v/>
       </c>
     </row>
@@ -11118,7 +11551,7 @@
         <v/>
       </c>
       <c r="F28" t="str">
-        <f>IF(LEN(Library!R29)=0,"",Library!R29)</f>
+        <f>IF(LEN(Library!S29)=0,"",Library!S29)</f>
         <v/>
       </c>
       <c r="G28" t="str">
@@ -11126,7 +11559,7 @@
         <v/>
       </c>
       <c r="H28" t="str">
-        <f>IF(LEN(Library!P29)=0,"",Library!P29)</f>
+        <f>IF(LEN(Library!Q29)=0,"",Library!Q29)</f>
         <v/>
       </c>
     </row>
@@ -11152,7 +11585,7 @@
         <v/>
       </c>
       <c r="F29" t="str">
-        <f>IF(LEN(Library!R30)=0,"",Library!R30)</f>
+        <f>IF(LEN(Library!S30)=0,"",Library!S30)</f>
         <v/>
       </c>
       <c r="G29" t="str">
@@ -11160,7 +11593,7 @@
         <v/>
       </c>
       <c r="H29" t="str">
-        <f>IF(LEN(Library!P30)=0,"",Library!P30)</f>
+        <f>IF(LEN(Library!Q30)=0,"",Library!Q30)</f>
         <v/>
       </c>
     </row>
@@ -11186,7 +11619,7 @@
         <v/>
       </c>
       <c r="F30" t="str">
-        <f>IF(LEN(Library!R31)=0,"",Library!R31)</f>
+        <f>IF(LEN(Library!S31)=0,"",Library!S31)</f>
         <v/>
       </c>
       <c r="G30" t="str">
@@ -11194,7 +11627,7 @@
         <v/>
       </c>
       <c r="H30" t="str">
-        <f>IF(LEN(Library!P31)=0,"",Library!P31)</f>
+        <f>IF(LEN(Library!Q31)=0,"",Library!Q31)</f>
         <v/>
       </c>
     </row>
@@ -11220,7 +11653,7 @@
         <v/>
       </c>
       <c r="F31" t="str">
-        <f>IF(LEN(Library!R32)=0,"",Library!R32)</f>
+        <f>IF(LEN(Library!S32)=0,"",Library!S32)</f>
         <v/>
       </c>
       <c r="G31" t="str">
@@ -11228,7 +11661,7 @@
         <v/>
       </c>
       <c r="H31" t="str">
-        <f>IF(LEN(Library!P32)=0,"",Library!P32)</f>
+        <f>IF(LEN(Library!Q32)=0,"",Library!Q32)</f>
         <v/>
       </c>
     </row>
@@ -11254,7 +11687,7 @@
         <v/>
       </c>
       <c r="F32" t="str">
-        <f>IF(LEN(Library!R33)=0,"",Library!R33)</f>
+        <f>IF(LEN(Library!S33)=0,"",Library!S33)</f>
         <v/>
       </c>
       <c r="G32" t="str">
@@ -11262,7 +11695,7 @@
         <v/>
       </c>
       <c r="H32" t="str">
-        <f>IF(LEN(Library!P33)=0,"",Library!P33)</f>
+        <f>IF(LEN(Library!Q33)=0,"",Library!Q33)</f>
         <v/>
       </c>
     </row>
@@ -11288,7 +11721,7 @@
         <v/>
       </c>
       <c r="F33" t="str">
-        <f>IF(LEN(Library!R34)=0,"",Library!R34)</f>
+        <f>IF(LEN(Library!S34)=0,"",Library!S34)</f>
         <v/>
       </c>
       <c r="G33" t="str">
@@ -11296,7 +11729,7 @@
         <v/>
       </c>
       <c r="H33" t="str">
-        <f>IF(LEN(Library!P34)=0,"",Library!P34)</f>
+        <f>IF(LEN(Library!Q34)=0,"",Library!Q34)</f>
         <v/>
       </c>
     </row>
@@ -11322,7 +11755,7 @@
         <v/>
       </c>
       <c r="F34" t="str">
-        <f>IF(LEN(Library!R35)=0,"",Library!R35)</f>
+        <f>IF(LEN(Library!S35)=0,"",Library!S35)</f>
         <v/>
       </c>
       <c r="G34" t="str">
@@ -11330,7 +11763,7 @@
         <v/>
       </c>
       <c r="H34" t="str">
-        <f>IF(LEN(Library!P35)=0,"",Library!P35)</f>
+        <f>IF(LEN(Library!Q35)=0,"",Library!Q35)</f>
         <v/>
       </c>
     </row>
@@ -11356,7 +11789,7 @@
         <v/>
       </c>
       <c r="F35" t="str">
-        <f>IF(LEN(Library!R36)=0,"",Library!R36)</f>
+        <f>IF(LEN(Library!S36)=0,"",Library!S36)</f>
         <v/>
       </c>
       <c r="G35" t="str">
@@ -11364,7 +11797,7 @@
         <v/>
       </c>
       <c r="H35" t="str">
-        <f>IF(LEN(Library!P36)=0,"",Library!P36)</f>
+        <f>IF(LEN(Library!Q36)=0,"",Library!Q36)</f>
         <v/>
       </c>
     </row>
@@ -11390,7 +11823,7 @@
         <v/>
       </c>
       <c r="F36" t="str">
-        <f>IF(LEN(Library!R37)=0,"",Library!R37)</f>
+        <f>IF(LEN(Library!S37)=0,"",Library!S37)</f>
         <v/>
       </c>
       <c r="G36" t="str">
@@ -11398,7 +11831,7 @@
         <v/>
       </c>
       <c r="H36" t="str">
-        <f>IF(LEN(Library!P37)=0,"",Library!P37)</f>
+        <f>IF(LEN(Library!Q37)=0,"",Library!Q37)</f>
         <v/>
       </c>
     </row>
@@ -11424,7 +11857,7 @@
         <v/>
       </c>
       <c r="F37" t="str">
-        <f>IF(LEN(Library!R38)=0,"",Library!R38)</f>
+        <f>IF(LEN(Library!S38)=0,"",Library!S38)</f>
         <v/>
       </c>
       <c r="G37" t="str">
@@ -11432,7 +11865,7 @@
         <v/>
       </c>
       <c r="H37" t="str">
-        <f>IF(LEN(Library!P38)=0,"",Library!P38)</f>
+        <f>IF(LEN(Library!Q38)=0,"",Library!Q38)</f>
         <v/>
       </c>
     </row>
@@ -11458,7 +11891,7 @@
         <v/>
       </c>
       <c r="F38" t="str">
-        <f>IF(LEN(Library!R39)=0,"",Library!R39)</f>
+        <f>IF(LEN(Library!S39)=0,"",Library!S39)</f>
         <v/>
       </c>
       <c r="G38" t="str">
@@ -11466,7 +11899,7 @@
         <v/>
       </c>
       <c r="H38" t="str">
-        <f>IF(LEN(Library!P39)=0,"",Library!P39)</f>
+        <f>IF(LEN(Library!Q39)=0,"",Library!Q39)</f>
         <v/>
       </c>
     </row>
@@ -11492,7 +11925,7 @@
         <v/>
       </c>
       <c r="F39" t="str">
-        <f>IF(LEN(Library!R40)=0,"",Library!R40)</f>
+        <f>IF(LEN(Library!S40)=0,"",Library!S40)</f>
         <v/>
       </c>
       <c r="G39" t="str">
@@ -11500,7 +11933,7 @@
         <v/>
       </c>
       <c r="H39" t="str">
-        <f>IF(LEN(Library!P40)=0,"",Library!P40)</f>
+        <f>IF(LEN(Library!Q40)=0,"",Library!Q40)</f>
         <v/>
       </c>
     </row>
@@ -11526,7 +11959,7 @@
         <v/>
       </c>
       <c r="F40" t="str">
-        <f>IF(LEN(Library!R41)=0,"",Library!R41)</f>
+        <f>IF(LEN(Library!S41)=0,"",Library!S41)</f>
         <v/>
       </c>
       <c r="G40" t="str">
@@ -11534,7 +11967,7 @@
         <v/>
       </c>
       <c r="H40" t="str">
-        <f>IF(LEN(Library!P41)=0,"",Library!P41)</f>
+        <f>IF(LEN(Library!Q41)=0,"",Library!Q41)</f>
         <v/>
       </c>
     </row>
@@ -11560,7 +11993,7 @@
         <v/>
       </c>
       <c r="F41" t="str">
-        <f>IF(LEN(Library!R42)=0,"",Library!R42)</f>
+        <f>IF(LEN(Library!S42)=0,"",Library!S42)</f>
         <v/>
       </c>
       <c r="G41" t="str">
@@ -11568,7 +12001,7 @@
         <v/>
       </c>
       <c r="H41" t="str">
-        <f>IF(LEN(Library!P42)=0,"",Library!P42)</f>
+        <f>IF(LEN(Library!Q42)=0,"",Library!Q42)</f>
         <v/>
       </c>
     </row>
@@ -11594,7 +12027,7 @@
         <v/>
       </c>
       <c r="F42" t="str">
-        <f>IF(LEN(Library!R43)=0,"",Library!R43)</f>
+        <f>IF(LEN(Library!S43)=0,"",Library!S43)</f>
         <v/>
       </c>
       <c r="G42" t="str">
@@ -11602,7 +12035,7 @@
         <v/>
       </c>
       <c r="H42" t="str">
-        <f>IF(LEN(Library!P43)=0,"",Library!P43)</f>
+        <f>IF(LEN(Library!Q43)=0,"",Library!Q43)</f>
         <v/>
       </c>
     </row>
@@ -11628,7 +12061,7 @@
         <v/>
       </c>
       <c r="F43" t="str">
-        <f>IF(LEN(Library!R44)=0,"",Library!R44)</f>
+        <f>IF(LEN(Library!S44)=0,"",Library!S44)</f>
         <v/>
       </c>
       <c r="G43" t="str">
@@ -11636,7 +12069,7 @@
         <v/>
       </c>
       <c r="H43" t="str">
-        <f>IF(LEN(Library!P44)=0,"",Library!P44)</f>
+        <f>IF(LEN(Library!Q44)=0,"",Library!Q44)</f>
         <v/>
       </c>
     </row>
@@ -11662,7 +12095,7 @@
         <v/>
       </c>
       <c r="F44" t="str">
-        <f>IF(LEN(Library!R45)=0,"",Library!R45)</f>
+        <f>IF(LEN(Library!S45)=0,"",Library!S45)</f>
         <v/>
       </c>
       <c r="G44" t="str">
@@ -11670,7 +12103,7 @@
         <v/>
       </c>
       <c r="H44" t="str">
-        <f>IF(LEN(Library!P45)=0,"",Library!P45)</f>
+        <f>IF(LEN(Library!Q45)=0,"",Library!Q45)</f>
         <v/>
       </c>
     </row>
@@ -11696,7 +12129,7 @@
         <v/>
       </c>
       <c r="F45" t="str">
-        <f>IF(LEN(Library!R46)=0,"",Library!R46)</f>
+        <f>IF(LEN(Library!S46)=0,"",Library!S46)</f>
         <v/>
       </c>
       <c r="G45" t="str">
@@ -11704,7 +12137,7 @@
         <v/>
       </c>
       <c r="H45" t="str">
-        <f>IF(LEN(Library!P46)=0,"",Library!P46)</f>
+        <f>IF(LEN(Library!Q46)=0,"",Library!Q46)</f>
         <v/>
       </c>
     </row>
@@ -11730,7 +12163,7 @@
         <v/>
       </c>
       <c r="F46" t="str">
-        <f>IF(LEN(Library!R47)=0,"",Library!R47)</f>
+        <f>IF(LEN(Library!S47)=0,"",Library!S47)</f>
         <v/>
       </c>
       <c r="G46" t="str">
@@ -11738,7 +12171,7 @@
         <v/>
       </c>
       <c r="H46" t="str">
-        <f>IF(LEN(Library!P47)=0,"",Library!P47)</f>
+        <f>IF(LEN(Library!Q47)=0,"",Library!Q47)</f>
         <v/>
       </c>
     </row>
@@ -11764,7 +12197,7 @@
         <v/>
       </c>
       <c r="F47" t="str">
-        <f>IF(LEN(Library!R48)=0,"",Library!R48)</f>
+        <f>IF(LEN(Library!S48)=0,"",Library!S48)</f>
         <v/>
       </c>
       <c r="G47" t="str">
@@ -11772,7 +12205,7 @@
         <v/>
       </c>
       <c r="H47" t="str">
-        <f>IF(LEN(Library!P48)=0,"",Library!P48)</f>
+        <f>IF(LEN(Library!Q48)=0,"",Library!Q48)</f>
         <v/>
       </c>
     </row>
@@ -11798,7 +12231,7 @@
         <v/>
       </c>
       <c r="F48" t="str">
-        <f>IF(LEN(Library!R49)=0,"",Library!R49)</f>
+        <f>IF(LEN(Library!S49)=0,"",Library!S49)</f>
         <v/>
       </c>
       <c r="G48" t="str">
@@ -11806,7 +12239,7 @@
         <v/>
       </c>
       <c r="H48" t="str">
-        <f>IF(LEN(Library!P49)=0,"",Library!P49)</f>
+        <f>IF(LEN(Library!Q49)=0,"",Library!Q49)</f>
         <v/>
       </c>
     </row>
@@ -11832,7 +12265,7 @@
         <v/>
       </c>
       <c r="F49" t="str">
-        <f>IF(LEN(Library!R50)=0,"",Library!R50)</f>
+        <f>IF(LEN(Library!S50)=0,"",Library!S50)</f>
         <v/>
       </c>
       <c r="G49" t="str">
@@ -11840,7 +12273,7 @@
         <v/>
       </c>
       <c r="H49" t="str">
-        <f>IF(LEN(Library!P50)=0,"",Library!P50)</f>
+        <f>IF(LEN(Library!Q50)=0,"",Library!Q50)</f>
         <v/>
       </c>
     </row>
@@ -11866,7 +12299,7 @@
         <v/>
       </c>
       <c r="F50" t="str">
-        <f>IF(LEN(Library!R51)=0,"",Library!R51)</f>
+        <f>IF(LEN(Library!S51)=0,"",Library!S51)</f>
         <v/>
       </c>
       <c r="G50" t="str">
@@ -11874,7 +12307,7 @@
         <v/>
       </c>
       <c r="H50" t="str">
-        <f>IF(LEN(Library!P51)=0,"",Library!P51)</f>
+        <f>IF(LEN(Library!Q51)=0,"",Library!Q51)</f>
         <v/>
       </c>
     </row>
@@ -11900,7 +12333,7 @@
         <v/>
       </c>
       <c r="F51" t="str">
-        <f>IF(LEN(Library!R52)=0,"",Library!R52)</f>
+        <f>IF(LEN(Library!S52)=0,"",Library!S52)</f>
         <v/>
       </c>
       <c r="G51" t="str">
@@ -11908,7 +12341,7 @@
         <v/>
       </c>
       <c r="H51" t="str">
-        <f>IF(LEN(Library!P52)=0,"",Library!P52)</f>
+        <f>IF(LEN(Library!Q52)=0,"",Library!Q52)</f>
         <v/>
       </c>
     </row>
@@ -11934,7 +12367,7 @@
         <v/>
       </c>
       <c r="F52" t="str">
-        <f>IF(LEN(Library!R53)=0,"",Library!R53)</f>
+        <f>IF(LEN(Library!S53)=0,"",Library!S53)</f>
         <v/>
       </c>
       <c r="G52" t="str">
@@ -11942,7 +12375,7 @@
         <v/>
       </c>
       <c r="H52" t="str">
-        <f>IF(LEN(Library!P53)=0,"",Library!P53)</f>
+        <f>IF(LEN(Library!Q53)=0,"",Library!Q53)</f>
         <v/>
       </c>
     </row>
@@ -11968,7 +12401,7 @@
         <v/>
       </c>
       <c r="F53" t="str">
-        <f>IF(LEN(Library!R54)=0,"",Library!R54)</f>
+        <f>IF(LEN(Library!S54)=0,"",Library!S54)</f>
         <v/>
       </c>
       <c r="G53" t="str">
@@ -11976,7 +12409,7 @@
         <v/>
       </c>
       <c r="H53" t="str">
-        <f>IF(LEN(Library!P54)=0,"",Library!P54)</f>
+        <f>IF(LEN(Library!Q54)=0,"",Library!Q54)</f>
         <v/>
       </c>
     </row>
@@ -12002,7 +12435,7 @@
         <v/>
       </c>
       <c r="F54" t="str">
-        <f>IF(LEN(Library!R55)=0,"",Library!R55)</f>
+        <f>IF(LEN(Library!S55)=0,"",Library!S55)</f>
         <v/>
       </c>
       <c r="G54" t="str">
@@ -12010,7 +12443,7 @@
         <v/>
       </c>
       <c r="H54" t="str">
-        <f>IF(LEN(Library!P55)=0,"",Library!P55)</f>
+        <f>IF(LEN(Library!Q55)=0,"",Library!Q55)</f>
         <v/>
       </c>
     </row>
@@ -12036,7 +12469,7 @@
         <v/>
       </c>
       <c r="F55" t="str">
-        <f>IF(LEN(Library!R56)=0,"",Library!R56)</f>
+        <f>IF(LEN(Library!S56)=0,"",Library!S56)</f>
         <v/>
       </c>
       <c r="G55" t="str">
@@ -12044,7 +12477,7 @@
         <v/>
       </c>
       <c r="H55" t="str">
-        <f>IF(LEN(Library!P56)=0,"",Library!P56)</f>
+        <f>IF(LEN(Library!Q56)=0,"",Library!Q56)</f>
         <v/>
       </c>
     </row>
@@ -12070,7 +12503,7 @@
         <v/>
       </c>
       <c r="F56" t="str">
-        <f>IF(LEN(Library!R57)=0,"",Library!R57)</f>
+        <f>IF(LEN(Library!S57)=0,"",Library!S57)</f>
         <v/>
       </c>
       <c r="G56" t="str">
@@ -12078,7 +12511,7 @@
         <v/>
       </c>
       <c r="H56" t="str">
-        <f>IF(LEN(Library!P57)=0,"",Library!P57)</f>
+        <f>IF(LEN(Library!Q57)=0,"",Library!Q57)</f>
         <v/>
       </c>
     </row>
@@ -12104,7 +12537,7 @@
         <v/>
       </c>
       <c r="F57" t="str">
-        <f>IF(LEN(Library!R58)=0,"",Library!R58)</f>
+        <f>IF(LEN(Library!S58)=0,"",Library!S58)</f>
         <v/>
       </c>
       <c r="G57" t="str">
@@ -12112,7 +12545,7 @@
         <v/>
       </c>
       <c r="H57" t="str">
-        <f>IF(LEN(Library!P58)=0,"",Library!P58)</f>
+        <f>IF(LEN(Library!Q58)=0,"",Library!Q58)</f>
         <v/>
       </c>
     </row>
@@ -12138,7 +12571,7 @@
         <v/>
       </c>
       <c r="F58" t="str">
-        <f>IF(LEN(Library!R59)=0,"",Library!R59)</f>
+        <f>IF(LEN(Library!S59)=0,"",Library!S59)</f>
         <v/>
       </c>
       <c r="G58" t="str">
@@ -12146,7 +12579,7 @@
         <v/>
       </c>
       <c r="H58" t="str">
-        <f>IF(LEN(Library!P59)=0,"",Library!P59)</f>
+        <f>IF(LEN(Library!Q59)=0,"",Library!Q59)</f>
         <v/>
       </c>
     </row>
@@ -12172,7 +12605,7 @@
         <v/>
       </c>
       <c r="F59" t="str">
-        <f>IF(LEN(Library!R60)=0,"",Library!R60)</f>
+        <f>IF(LEN(Library!S60)=0,"",Library!S60)</f>
         <v/>
       </c>
       <c r="G59" t="str">
@@ -12180,7 +12613,7 @@
         <v/>
       </c>
       <c r="H59" t="str">
-        <f>IF(LEN(Library!P60)=0,"",Library!P60)</f>
+        <f>IF(LEN(Library!Q60)=0,"",Library!Q60)</f>
         <v/>
       </c>
     </row>
@@ -12206,7 +12639,7 @@
         <v/>
       </c>
       <c r="F60" t="str">
-        <f>IF(LEN(Library!R61)=0,"",Library!R61)</f>
+        <f>IF(LEN(Library!S61)=0,"",Library!S61)</f>
         <v/>
       </c>
       <c r="G60" t="str">
@@ -12214,7 +12647,7 @@
         <v/>
       </c>
       <c r="H60" t="str">
-        <f>IF(LEN(Library!P61)=0,"",Library!P61)</f>
+        <f>IF(LEN(Library!Q61)=0,"",Library!Q61)</f>
         <v/>
       </c>
     </row>
@@ -12240,7 +12673,7 @@
         <v/>
       </c>
       <c r="F61" t="str">
-        <f>IF(LEN(Library!R62)=0,"",Library!R62)</f>
+        <f>IF(LEN(Library!S62)=0,"",Library!S62)</f>
         <v/>
       </c>
       <c r="G61" t="str">
@@ -12248,7 +12681,7 @@
         <v/>
       </c>
       <c r="H61" t="str">
-        <f>IF(LEN(Library!P62)=0,"",Library!P62)</f>
+        <f>IF(LEN(Library!Q62)=0,"",Library!Q62)</f>
         <v/>
       </c>
     </row>
@@ -12274,7 +12707,7 @@
         <v/>
       </c>
       <c r="F62" t="str">
-        <f>IF(LEN(Library!R63)=0,"",Library!R63)</f>
+        <f>IF(LEN(Library!S63)=0,"",Library!S63)</f>
         <v/>
       </c>
       <c r="G62" t="str">
@@ -12282,7 +12715,7 @@
         <v/>
       </c>
       <c r="H62" t="str">
-        <f>IF(LEN(Library!P63)=0,"",Library!P63)</f>
+        <f>IF(LEN(Library!Q63)=0,"",Library!Q63)</f>
         <v/>
       </c>
     </row>
@@ -12308,7 +12741,7 @@
         <v/>
       </c>
       <c r="F63" t="str">
-        <f>IF(LEN(Library!R64)=0,"",Library!R64)</f>
+        <f>IF(LEN(Library!S64)=0,"",Library!S64)</f>
         <v/>
       </c>
       <c r="G63" t="str">
@@ -12316,7 +12749,7 @@
         <v/>
       </c>
       <c r="H63" t="str">
-        <f>IF(LEN(Library!P64)=0,"",Library!P64)</f>
+        <f>IF(LEN(Library!Q64)=0,"",Library!Q64)</f>
         <v/>
       </c>
     </row>
@@ -12342,7 +12775,7 @@
         <v/>
       </c>
       <c r="F64" t="str">
-        <f>IF(LEN(Library!R65)=0,"",Library!R65)</f>
+        <f>IF(LEN(Library!S65)=0,"",Library!S65)</f>
         <v/>
       </c>
       <c r="G64" t="str">
@@ -12350,7 +12783,7 @@
         <v/>
       </c>
       <c r="H64" t="str">
-        <f>IF(LEN(Library!P65)=0,"",Library!P65)</f>
+        <f>IF(LEN(Library!Q65)=0,"",Library!Q65)</f>
         <v/>
       </c>
     </row>
@@ -12376,7 +12809,7 @@
         <v/>
       </c>
       <c r="F65" t="str">
-        <f>IF(LEN(Library!R66)=0,"",Library!R66)</f>
+        <f>IF(LEN(Library!S66)=0,"",Library!S66)</f>
         <v/>
       </c>
       <c r="G65" t="str">
@@ -12384,7 +12817,7 @@
         <v/>
       </c>
       <c r="H65" t="str">
-        <f>IF(LEN(Library!P66)=0,"",Library!P66)</f>
+        <f>IF(LEN(Library!Q66)=0,"",Library!Q66)</f>
         <v/>
       </c>
     </row>
@@ -12410,7 +12843,7 @@
         <v/>
       </c>
       <c r="F66" t="str">
-        <f>IF(LEN(Library!R67)=0,"",Library!R67)</f>
+        <f>IF(LEN(Library!S67)=0,"",Library!S67)</f>
         <v/>
       </c>
       <c r="G66" t="str">
@@ -12418,7 +12851,7 @@
         <v/>
       </c>
       <c r="H66" t="str">
-        <f>IF(LEN(Library!P67)=0,"",Library!P67)</f>
+        <f>IF(LEN(Library!Q67)=0,"",Library!Q67)</f>
         <v/>
       </c>
     </row>
@@ -12444,7 +12877,7 @@
         <v/>
       </c>
       <c r="F67" t="str">
-        <f>IF(LEN(Library!R68)=0,"",Library!R68)</f>
+        <f>IF(LEN(Library!S68)=0,"",Library!S68)</f>
         <v/>
       </c>
       <c r="G67" t="str">
@@ -12452,7 +12885,7 @@
         <v/>
       </c>
       <c r="H67" t="str">
-        <f>IF(LEN(Library!P68)=0,"",Library!P68)</f>
+        <f>IF(LEN(Library!Q68)=0,"",Library!Q68)</f>
         <v/>
       </c>
     </row>
@@ -12478,7 +12911,7 @@
         <v/>
       </c>
       <c r="F68" t="str">
-        <f>IF(LEN(Library!R69)=0,"",Library!R69)</f>
+        <f>IF(LEN(Library!S69)=0,"",Library!S69)</f>
         <v/>
       </c>
       <c r="G68" t="str">
@@ -12486,7 +12919,7 @@
         <v/>
       </c>
       <c r="H68" t="str">
-        <f>IF(LEN(Library!P69)=0,"",Library!P69)</f>
+        <f>IF(LEN(Library!Q69)=0,"",Library!Q69)</f>
         <v/>
       </c>
     </row>
@@ -12512,7 +12945,7 @@
         <v/>
       </c>
       <c r="F69" t="str">
-        <f>IF(LEN(Library!R70)=0,"",Library!R70)</f>
+        <f>IF(LEN(Library!S70)=0,"",Library!S70)</f>
         <v/>
       </c>
       <c r="G69" t="str">
@@ -12520,7 +12953,7 @@
         <v/>
       </c>
       <c r="H69" t="str">
-        <f>IF(LEN(Library!P70)=0,"",Library!P70)</f>
+        <f>IF(LEN(Library!Q70)=0,"",Library!Q70)</f>
         <v/>
       </c>
     </row>
@@ -12546,7 +12979,7 @@
         <v/>
       </c>
       <c r="F70" t="str">
-        <f>IF(LEN(Library!R71)=0,"",Library!R71)</f>
+        <f>IF(LEN(Library!S71)=0,"",Library!S71)</f>
         <v/>
       </c>
       <c r="G70" t="str">
@@ -12554,7 +12987,7 @@
         <v/>
       </c>
       <c r="H70" t="str">
-        <f>IF(LEN(Library!P71)=0,"",Library!P71)</f>
+        <f>IF(LEN(Library!Q71)=0,"",Library!Q71)</f>
         <v/>
       </c>
     </row>
@@ -12580,7 +13013,7 @@
         <v/>
       </c>
       <c r="F71" t="str">
-        <f>IF(LEN(Library!R72)=0,"",Library!R72)</f>
+        <f>IF(LEN(Library!S72)=0,"",Library!S72)</f>
         <v/>
       </c>
       <c r="G71" t="str">
@@ -12588,7 +13021,7 @@
         <v/>
       </c>
       <c r="H71" t="str">
-        <f>IF(LEN(Library!P72)=0,"",Library!P72)</f>
+        <f>IF(LEN(Library!Q72)=0,"",Library!Q72)</f>
         <v/>
       </c>
     </row>
@@ -12614,7 +13047,7 @@
         <v/>
       </c>
       <c r="F72" t="str">
-        <f>IF(LEN(Library!R73)=0,"",Library!R73)</f>
+        <f>IF(LEN(Library!S73)=0,"",Library!S73)</f>
         <v/>
       </c>
       <c r="G72" t="str">
@@ -12622,7 +13055,7 @@
         <v/>
       </c>
       <c r="H72" t="str">
-        <f>IF(LEN(Library!P73)=0,"",Library!P73)</f>
+        <f>IF(LEN(Library!Q73)=0,"",Library!Q73)</f>
         <v/>
       </c>
     </row>
@@ -12648,7 +13081,7 @@
         <v/>
       </c>
       <c r="F73" t="str">
-        <f>IF(LEN(Library!R74)=0,"",Library!R74)</f>
+        <f>IF(LEN(Library!S74)=0,"",Library!S74)</f>
         <v/>
       </c>
       <c r="G73" t="str">
@@ -12656,7 +13089,7 @@
         <v/>
       </c>
       <c r="H73" t="str">
-        <f>IF(LEN(Library!P74)=0,"",Library!P74)</f>
+        <f>IF(LEN(Library!Q74)=0,"",Library!Q74)</f>
         <v/>
       </c>
     </row>
@@ -12682,7 +13115,7 @@
         <v/>
       </c>
       <c r="F74" t="str">
-        <f>IF(LEN(Library!R75)=0,"",Library!R75)</f>
+        <f>IF(LEN(Library!S75)=0,"",Library!S75)</f>
         <v/>
       </c>
       <c r="G74" t="str">
@@ -12690,7 +13123,7 @@
         <v/>
       </c>
       <c r="H74" t="str">
-        <f>IF(LEN(Library!P75)=0,"",Library!P75)</f>
+        <f>IF(LEN(Library!Q75)=0,"",Library!Q75)</f>
         <v/>
       </c>
     </row>
@@ -12716,7 +13149,7 @@
         <v/>
       </c>
       <c r="F75" t="str">
-        <f>IF(LEN(Library!R76)=0,"",Library!R76)</f>
+        <f>IF(LEN(Library!S76)=0,"",Library!S76)</f>
         <v/>
       </c>
       <c r="G75" t="str">
@@ -12724,7 +13157,7 @@
         <v/>
       </c>
       <c r="H75" t="str">
-        <f>IF(LEN(Library!P76)=0,"",Library!P76)</f>
+        <f>IF(LEN(Library!Q76)=0,"",Library!Q76)</f>
         <v/>
       </c>
     </row>
@@ -12750,7 +13183,7 @@
         <v/>
       </c>
       <c r="F76" t="str">
-        <f>IF(LEN(Library!R77)=0,"",Library!R77)</f>
+        <f>IF(LEN(Library!S77)=0,"",Library!S77)</f>
         <v/>
       </c>
       <c r="G76" t="str">
@@ -12758,7 +13191,7 @@
         <v/>
       </c>
       <c r="H76" t="str">
-        <f>IF(LEN(Library!P77)=0,"",Library!P77)</f>
+        <f>IF(LEN(Library!Q77)=0,"",Library!Q77)</f>
         <v/>
       </c>
     </row>
@@ -12784,7 +13217,7 @@
         <v/>
       </c>
       <c r="F77" t="str">
-        <f>IF(LEN(Library!R78)=0,"",Library!R78)</f>
+        <f>IF(LEN(Library!S78)=0,"",Library!S78)</f>
         <v/>
       </c>
       <c r="G77" t="str">
@@ -12792,7 +13225,7 @@
         <v/>
       </c>
       <c r="H77" t="str">
-        <f>IF(LEN(Library!P78)=0,"",Library!P78)</f>
+        <f>IF(LEN(Library!Q78)=0,"",Library!Q78)</f>
         <v/>
       </c>
     </row>
@@ -12818,7 +13251,7 @@
         <v/>
       </c>
       <c r="F78" t="str">
-        <f>IF(LEN(Library!R79)=0,"",Library!R79)</f>
+        <f>IF(LEN(Library!S79)=0,"",Library!S79)</f>
         <v/>
       </c>
       <c r="G78" t="str">
@@ -12826,7 +13259,7 @@
         <v/>
       </c>
       <c r="H78" t="str">
-        <f>IF(LEN(Library!P79)=0,"",Library!P79)</f>
+        <f>IF(LEN(Library!Q79)=0,"",Library!Q79)</f>
         <v/>
       </c>
     </row>
@@ -12852,7 +13285,7 @@
         <v/>
       </c>
       <c r="F79" t="str">
-        <f>IF(LEN(Library!R80)=0,"",Library!R80)</f>
+        <f>IF(LEN(Library!S80)=0,"",Library!S80)</f>
         <v/>
       </c>
       <c r="G79" t="str">
@@ -12860,7 +13293,7 @@
         <v/>
       </c>
       <c r="H79" t="str">
-        <f>IF(LEN(Library!P80)=0,"",Library!P80)</f>
+        <f>IF(LEN(Library!Q80)=0,"",Library!Q80)</f>
         <v/>
       </c>
     </row>
@@ -12886,7 +13319,7 @@
         <v/>
       </c>
       <c r="F80" t="str">
-        <f>IF(LEN(Library!R81)=0,"",Library!R81)</f>
+        <f>IF(LEN(Library!S81)=0,"",Library!S81)</f>
         <v/>
       </c>
       <c r="G80" t="str">
@@ -12894,7 +13327,7 @@
         <v/>
       </c>
       <c r="H80" t="str">
-        <f>IF(LEN(Library!P81)=0,"",Library!P81)</f>
+        <f>IF(LEN(Library!Q81)=0,"",Library!Q81)</f>
         <v/>
       </c>
     </row>
@@ -12920,7 +13353,7 @@
         <v/>
       </c>
       <c r="F81" t="str">
-        <f>IF(LEN(Library!R82)=0,"",Library!R82)</f>
+        <f>IF(LEN(Library!S82)=0,"",Library!S82)</f>
         <v/>
       </c>
       <c r="G81" t="str">
@@ -12928,7 +13361,7 @@
         <v/>
       </c>
       <c r="H81" t="str">
-        <f>IF(LEN(Library!P82)=0,"",Library!P82)</f>
+        <f>IF(LEN(Library!Q82)=0,"",Library!Q82)</f>
         <v/>
       </c>
     </row>
@@ -12954,7 +13387,7 @@
         <v/>
       </c>
       <c r="F82" t="str">
-        <f>IF(LEN(Library!R83)=0,"",Library!R83)</f>
+        <f>IF(LEN(Library!S83)=0,"",Library!S83)</f>
         <v/>
       </c>
       <c r="G82" t="str">
@@ -12962,7 +13395,7 @@
         <v/>
       </c>
       <c r="H82" t="str">
-        <f>IF(LEN(Library!P83)=0,"",Library!P83)</f>
+        <f>IF(LEN(Library!Q83)=0,"",Library!Q83)</f>
         <v/>
       </c>
     </row>
@@ -12988,7 +13421,7 @@
         <v/>
       </c>
       <c r="F83" t="str">
-        <f>IF(LEN(Library!R84)=0,"",Library!R84)</f>
+        <f>IF(LEN(Library!S84)=0,"",Library!S84)</f>
         <v/>
       </c>
       <c r="G83" t="str">
@@ -12996,7 +13429,7 @@
         <v/>
       </c>
       <c r="H83" t="str">
-        <f>IF(LEN(Library!P84)=0,"",Library!P84)</f>
+        <f>IF(LEN(Library!Q84)=0,"",Library!Q84)</f>
         <v/>
       </c>
     </row>
@@ -13022,7 +13455,7 @@
         <v/>
       </c>
       <c r="F84" t="str">
-        <f>IF(LEN(Library!R85)=0,"",Library!R85)</f>
+        <f>IF(LEN(Library!S85)=0,"",Library!S85)</f>
         <v/>
       </c>
       <c r="G84" t="str">
@@ -13030,7 +13463,7 @@
         <v/>
       </c>
       <c r="H84" t="str">
-        <f>IF(LEN(Library!P85)=0,"",Library!P85)</f>
+        <f>IF(LEN(Library!Q85)=0,"",Library!Q85)</f>
         <v/>
       </c>
     </row>
@@ -13056,7 +13489,7 @@
         <v/>
       </c>
       <c r="F85" t="str">
-        <f>IF(LEN(Library!R86)=0,"",Library!R86)</f>
+        <f>IF(LEN(Library!S86)=0,"",Library!S86)</f>
         <v/>
       </c>
       <c r="G85" t="str">
@@ -13064,7 +13497,7 @@
         <v/>
       </c>
       <c r="H85" t="str">
-        <f>IF(LEN(Library!P86)=0,"",Library!P86)</f>
+        <f>IF(LEN(Library!Q86)=0,"",Library!Q86)</f>
         <v/>
       </c>
     </row>
@@ -13090,7 +13523,7 @@
         <v/>
       </c>
       <c r="F86" t="str">
-        <f>IF(LEN(Library!R87)=0,"",Library!R87)</f>
+        <f>IF(LEN(Library!S87)=0,"",Library!S87)</f>
         <v/>
       </c>
       <c r="G86" t="str">
@@ -13098,7 +13531,7 @@
         <v/>
       </c>
       <c r="H86" t="str">
-        <f>IF(LEN(Library!P87)=0,"",Library!P87)</f>
+        <f>IF(LEN(Library!Q87)=0,"",Library!Q87)</f>
         <v/>
       </c>
     </row>
@@ -13124,7 +13557,7 @@
         <v/>
       </c>
       <c r="F87" t="str">
-        <f>IF(LEN(Library!R88)=0,"",Library!R88)</f>
+        <f>IF(LEN(Library!S88)=0,"",Library!S88)</f>
         <v/>
       </c>
       <c r="G87" t="str">
@@ -13132,7 +13565,7 @@
         <v/>
       </c>
       <c r="H87" t="str">
-        <f>IF(LEN(Library!P88)=0,"",Library!P88)</f>
+        <f>IF(LEN(Library!Q88)=0,"",Library!Q88)</f>
         <v/>
       </c>
     </row>
@@ -13158,7 +13591,7 @@
         <v/>
       </c>
       <c r="F88" t="str">
-        <f>IF(LEN(Library!R89)=0,"",Library!R89)</f>
+        <f>IF(LEN(Library!S89)=0,"",Library!S89)</f>
         <v/>
       </c>
       <c r="G88" t="str">
@@ -13166,7 +13599,7 @@
         <v/>
       </c>
       <c r="H88" t="str">
-        <f>IF(LEN(Library!P89)=0,"",Library!P89)</f>
+        <f>IF(LEN(Library!Q89)=0,"",Library!Q89)</f>
         <v/>
       </c>
     </row>
@@ -13192,7 +13625,7 @@
         <v/>
       </c>
       <c r="F89" t="str">
-        <f>IF(LEN(Library!R90)=0,"",Library!R90)</f>
+        <f>IF(LEN(Library!S90)=0,"",Library!S90)</f>
         <v/>
       </c>
       <c r="G89" t="str">
@@ -13200,7 +13633,7 @@
         <v/>
       </c>
       <c r="H89" t="str">
-        <f>IF(LEN(Library!P90)=0,"",Library!P90)</f>
+        <f>IF(LEN(Library!Q90)=0,"",Library!Q90)</f>
         <v/>
       </c>
     </row>
@@ -13226,7 +13659,7 @@
         <v/>
       </c>
       <c r="F90" t="str">
-        <f>IF(LEN(Library!R91)=0,"",Library!R91)</f>
+        <f>IF(LEN(Library!S91)=0,"",Library!S91)</f>
         <v/>
       </c>
       <c r="G90" t="str">
@@ -13234,7 +13667,7 @@
         <v/>
       </c>
       <c r="H90" t="str">
-        <f>IF(LEN(Library!P91)=0,"",Library!P91)</f>
+        <f>IF(LEN(Library!Q91)=0,"",Library!Q91)</f>
         <v/>
       </c>
     </row>
@@ -13260,7 +13693,7 @@
         <v/>
       </c>
       <c r="F91" t="str">
-        <f>IF(LEN(Library!R92)=0,"",Library!R92)</f>
+        <f>IF(LEN(Library!S92)=0,"",Library!S92)</f>
         <v/>
       </c>
       <c r="G91" t="str">
@@ -13268,7 +13701,7 @@
         <v/>
       </c>
       <c r="H91" t="str">
-        <f>IF(LEN(Library!P92)=0,"",Library!P92)</f>
+        <f>IF(LEN(Library!Q92)=0,"",Library!Q92)</f>
         <v/>
       </c>
     </row>
@@ -13294,7 +13727,7 @@
         <v/>
       </c>
       <c r="F92" t="str">
-        <f>IF(LEN(Library!R93)=0,"",Library!R93)</f>
+        <f>IF(LEN(Library!S93)=0,"",Library!S93)</f>
         <v/>
       </c>
       <c r="G92" t="str">
@@ -13302,7 +13735,7 @@
         <v/>
       </c>
       <c r="H92" t="str">
-        <f>IF(LEN(Library!P93)=0,"",Library!P93)</f>
+        <f>IF(LEN(Library!Q93)=0,"",Library!Q93)</f>
         <v/>
       </c>
     </row>
@@ -13328,7 +13761,7 @@
         <v/>
       </c>
       <c r="F93" t="str">
-        <f>IF(LEN(Library!R94)=0,"",Library!R94)</f>
+        <f>IF(LEN(Library!S94)=0,"",Library!S94)</f>
         <v/>
       </c>
       <c r="G93" t="str">
@@ -13336,7 +13769,7 @@
         <v/>
       </c>
       <c r="H93" t="str">
-        <f>IF(LEN(Library!P94)=0,"",Library!P94)</f>
+        <f>IF(LEN(Library!Q94)=0,"",Library!Q94)</f>
         <v/>
       </c>
     </row>
@@ -13362,7 +13795,7 @@
         <v/>
       </c>
       <c r="F94" t="str">
-        <f>IF(LEN(Library!R95)=0,"",Library!R95)</f>
+        <f>IF(LEN(Library!S95)=0,"",Library!S95)</f>
         <v/>
       </c>
       <c r="G94" t="str">
@@ -13370,7 +13803,7 @@
         <v/>
       </c>
       <c r="H94" t="str">
-        <f>IF(LEN(Library!P95)=0,"",Library!P95)</f>
+        <f>IF(LEN(Library!Q95)=0,"",Library!Q95)</f>
         <v/>
       </c>
     </row>
@@ -13396,7 +13829,7 @@
         <v/>
       </c>
       <c r="F95" t="str">
-        <f>IF(LEN(Library!R96)=0,"",Library!R96)</f>
+        <f>IF(LEN(Library!S96)=0,"",Library!S96)</f>
         <v/>
       </c>
       <c r="G95" t="str">
@@ -13404,7 +13837,7 @@
         <v/>
       </c>
       <c r="H95" t="str">
-        <f>IF(LEN(Library!P96)=0,"",Library!P96)</f>
+        <f>IF(LEN(Library!Q96)=0,"",Library!Q96)</f>
         <v/>
       </c>
     </row>
@@ -13430,7 +13863,7 @@
         <v/>
       </c>
       <c r="F96" t="str">
-        <f>IF(LEN(Library!R97)=0,"",Library!R97)</f>
+        <f>IF(LEN(Library!S97)=0,"",Library!S97)</f>
         <v/>
       </c>
       <c r="G96" t="str">
@@ -13438,7 +13871,7 @@
         <v/>
       </c>
       <c r="H96" t="str">
-        <f>IF(LEN(Library!P97)=0,"",Library!P97)</f>
+        <f>IF(LEN(Library!Q97)=0,"",Library!Q97)</f>
         <v/>
       </c>
     </row>
@@ -13464,7 +13897,7 @@
         <v/>
       </c>
       <c r="F97" t="str">
-        <f>IF(LEN(Library!R98)=0,"",Library!R98)</f>
+        <f>IF(LEN(Library!S98)=0,"",Library!S98)</f>
         <v/>
       </c>
       <c r="G97" t="str">
@@ -13472,7 +13905,7 @@
         <v/>
       </c>
       <c r="H97" t="str">
-        <f>IF(LEN(Library!P98)=0,"",Library!P98)</f>
+        <f>IF(LEN(Library!Q98)=0,"",Library!Q98)</f>
         <v/>
       </c>
     </row>
